--- a/uploads/temp_apply.xlsx
+++ b/uploads/temp_apply.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,108 +502,107 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20141100176921</v>
+        <v>20231000346969</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nguyen Thi Minh Hanh00176921</t>
+          <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20141100176921</v>
+        <v>20231000346969</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Nguyen Thi Minh Hanh00176921</t>
+          <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025/7/17 14:50:52</t>
+          <t>2025/7/11 15:47:45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025/7/14 8:00:00</t>
+          <t>2025/7/11 15:00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025/7/14 17:30:00</t>
+          <t>2025/7/11 19:00:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>病假</t>
+          <t>市内出差</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Dear Sir, 
-On this day, I was sick. I had informed Mr Weiyong and asked for his acceptance. Please kindly approve. Thanks Sir.</t>
+          <t>张哥好，我去公安区给CHEN JIN JUN 办理暂住证做劳动证,  请你审批一下，谢谢！</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>待审批</t>
+          <t>审批通过</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Sick leave</t>
+          <t>Trip</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Sick leave</t>
+          <t>Trip</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20231000346969</v>
+        <v>20050900037581</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pham Thuy Linh00346969</t>
+          <t>DO THAI THU00037581</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20231000346969</v>
+        <v>20050900037581</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Pham Thuy Linh00346969</t>
+          <t>DO THAI THU00037581</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025/7/11 15:47:45</t>
+          <t>2025/7/5 10:36:31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025/7/11 15:00:00</t>
+          <t>2025/7/11 8:01:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025/7/11 19:00:00</t>
+          <t>2025/7/11 17:30:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>市内出差</t>
+          <t>年休假</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>张哥好，我去公安区给CHEN JIN JUN 办理暂住证做劳动证,  请你审批一下，谢谢！</t>
+          <t>带孩子去岘港参加国家篮球比赛</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -613,7 +612,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Leave</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -623,30 +622,30 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Annual leave</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20050900037581</v>
+        <v>20070510049773</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DO THAI THU00037581</t>
+          <t>Tran Tien Dung10049773</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20050900037581</v>
+        <v>20070510049773</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DO THAI THU00037581</t>
+          <t>Tran Tien Dung10049773</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025/7/5 10:36:31</t>
+          <t>2025/7/10 10:27:46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -656,7 +655,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025/7/11 17:30:00</t>
+          <t>2025/7/14 17:30:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -666,7 +665,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>带孩子去岘港参加国家篮球比赛</t>
+          <t>For 02 days annual leave.</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -692,34 +691,34 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20070510049773</v>
+        <v>20050900037581</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tran Tien Dung10049773</t>
+          <t>DO THAI THU00037581</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20070510049773</v>
+        <v>20050900037581</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tran Tien Dung10049773</t>
+          <t>DO THAI THU00037581</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025/7/10 10:27:46</t>
+          <t>2025/7/10 10:19:06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025/7/11 8:01:00</t>
+          <t>2025/7/10 13:30:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025/7/14 17:30:00</t>
+          <t>2025/7/10 17:30:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -729,7 +728,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>For 02 days annual leave.</t>
+          <t>身体不好，腰疼，我请假去治疗一下</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -755,44 +754,44 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20050900037581</v>
+        <v>20231000346969</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DO THAI THU00037581</t>
+          <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20050900037581</v>
+        <v>20231000346969</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DO THAI THU00037581</t>
+          <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025/7/10 10:19:06</t>
+          <t>2025/7/11 15:49:13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025/7/10 13:30:00</t>
+          <t>2025/7/7 15:00:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025/7/10 17:30:00</t>
+          <t>2025/7/7 19:00:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>年休假</t>
+          <t>市内出差</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>身体不好，腰疼，我请假去治疗一下</t>
+          <t>张哥好，我去公安区给ZHANG YU HANG 办理暂住证做劳动证,  请你审批一下，谢谢！</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -802,7 +801,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Leave</t>
+          <t>Trip</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -812,50 +811,50 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Annual leave</t>
+          <t>Trip</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20231000346969</v>
+        <v>20050900037581</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pham Thuy Linh00346969</t>
+          <t>DO THAI THU00037581</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20231000346969</v>
+        <v>20050900037581</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Pham Thuy Linh00346969</t>
+          <t>DO THAI THU00037581</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025/7/11 15:49:13</t>
+          <t>2025/7/5 10:35:49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025/7/7 15:00:00</t>
+          <t>2025/7/7 8:01:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025/7/7 19:00:00</t>
+          <t>2025/7/7 17:30:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>市内出差</t>
+          <t>年休假</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>张哥好，我去公安区给ZHANG YU HANG 办理暂住证做劳动证,  请你审批一下，谢谢！</t>
+          <t>带孩子去胡志明参加篮球比赛</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -865,7 +864,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Leave</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -875,50 +874,50 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Annual leave</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20050900037581</v>
+        <v>20030810020940</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DO THAI THU00037581</t>
+          <t>Ho Duc Huy10020940</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20050900037581</v>
+        <v>20030810020940</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DO THAI THU00037581</t>
+          <t>Ho Duc Huy10020940</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025/7/5 10:35:49</t>
+          <t>2025/7/9 19:45:29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025/7/7 8:01:00</t>
+          <t>2025/7/7 8:00:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025/7/7 17:30:00</t>
+          <t>2025/7/9 17:30:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>年休假</t>
+          <t>国内出差</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>带孩子去胡志明参加篮球比赛</t>
+          <t>出差到中国深圳总部，接待越南互联网协会代表团</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -928,7 +927,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Leave</t>
+          <t>Trip</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -938,50 +937,50 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Annual leave</t>
+          <t>Trip</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20030810020940</v>
+        <v>20110110120977</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ho Duc Huy10020940</t>
+          <t>Pham Tri Dung10120977</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20030810020940</v>
+        <v>20110110120977</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ho Duc Huy10020940</t>
+          <t>Pham Tri Dung10120977</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025/7/9 19:45:29</t>
+          <t>2025/6/26 16:11:50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025/7/7 8:00:00</t>
+          <t>2025/7/5 8:28:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025/7/9 17:30:00</t>
+          <t>2025/7/13 17:58:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>国内出差</t>
+          <t>国际/中国港澳台出差</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>出差到中国深圳总部，接待越南互联网协会代表团</t>
+          <t>Join ZTE Dualforce Bootcamp trainning in Shenzhen.</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1007,44 +1006,45 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20110110120977</v>
+        <v>20231000346969</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pham Tri Dung10120977</t>
+          <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20110110120977</v>
+        <v>20231000346969</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pham Tri Dung10120977</t>
+          <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025/6/26 16:11:50</t>
+          <t>2025/7/3 16:11:14</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025/7/5 8:28:00</t>
+          <t>2025/7/3 15:00:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025/7/13 17:58:00</t>
+          <t>2025/7/3 19:00:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>国际/中国港澳台出差</t>
+          <t>市内出差</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Join ZTE Dualforce Bootcamp trainning in Shenzhen.</t>
+          <t>张哥好！
+WANG ZHENGYU 要准备材料做劳动证， 我去公安区给他办理暂住证，请你审批一下</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1070,108 +1070,108 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20110110120977</v>
+        <v>20030810020940</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pham Tri Dung10120977</t>
+          <t>Ho Duc Huy10020940</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20110110120977</v>
+        <v>20030810020940</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Pham Tri Dung10120977</t>
+          <t>Ho Duc Huy10020940</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025/6/26 12:52:15</t>
+          <t>2025/7/3 23:59:43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025/7/4 12:28:00</t>
+          <t>2025/7/1 8:01:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025/7/13 20:58:00</t>
+          <t>2025/7/1 8:01:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>国际/中国港澳台出差</t>
+          <t>个人补单</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ZTE DualForce bootcamp program in Shenzhen city</t>
+          <t>早上因为直接去Gtel不打卡，烦请领导审批，谢谢！</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>已撤销</t>
+          <t>审批通过</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Supp</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Withdrawal</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Replenishment</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20231000346969</v>
+        <v>20141100176921</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pham Thuy Linh00346969</t>
+          <t>Nguyen Thi Minh Hanh00176921</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20231000346969</v>
+        <v>20141100176921</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Pham Thuy Linh00346969</t>
+          <t>Nguyen Thi Minh Hanh00176921</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025/7/3 16:11:14</t>
+          <t>2025/7/2 16:15:43</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025/7/3 15:00:00</t>
+          <t>2025/6/30 8:00:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025/7/3 19:00:00</t>
+          <t>2025/6/30 8:00:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>市内出差</t>
+          <t>个人补单</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>张哥好！
-WANG ZHENGYU 要准备材料做劳动证， 我去公安区给他办理暂住证，请你审批一下</t>
+          <t>Dear Sir, 
+I scanned the attendance before 8am. However due to the system error, it did not record the scanning to the system. Pls kindly approve. Thank you, Sir.</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Supp</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1191,246 +1191,245 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Replenishment</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20030810020940</v>
+        <v>20231000346969</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ho Duc Huy10020940</t>
+          <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20030810020940</v>
+        <v>20231000346969</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ho Duc Huy10020940</t>
+          <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025/7/3 23:59:43</t>
+          <t>2025/6/26 15:49:16</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025/7/1 8:01:00</t>
+          <t>2025/6/27 8:00:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025/7/1 8:01:00</t>
+          <t>2025/6/27 17:30:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>个人补单</t>
+          <t>年休假</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
-        <is>
-          <t>早上因为直接去Gtel不打卡，烦请领导审批，谢谢！</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>20141100176921</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Nguyen Thi Minh Hanh00176921</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>20141100176921</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Nguyen Thi Minh Hanh00176921</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2025/7/2 16:15:43</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2025/6/30 8:00:00</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2025/6/30 8:00:00</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Dear Sir, 
-I scanned the attendance before 8am. However due to the system error, it did not record the scanning to the system. Pls kindly approve. Thank you, Sir.</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2025/6/26 15:49:16</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025/6/27 8:00:00</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2025/6/27 17:30:00</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
         <is>
           <t>领导好，
 我申请请休年假一天，请领导审批。
 谢谢！</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Leave</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>Annual leave</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="14">
+      <c r="A14" t="n">
         <v>20231000346969</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C14" t="n">
         <v>20231000346969</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2025/6/26 15:51:11</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2025/6/26 15:00:00</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>2025/6/26 19:00:00</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>市内出差</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>张哥好，
 今天内务区约定提供HUANG TAI RONG劳动证，我去争取的。
 请领导审批。</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>20250500354133</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Dao Thi Ngan00354133</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>20250500354133</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Dao Thi Ngan00354133</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025/6/24 20:19:09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025/6/24 8:30:00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025/6/24 12:30:00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Visiting Viettelnet to update information and introduction</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20030810020940</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Ho Duc Huy10020940</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>20030810020940</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Ho Duc Huy10020940</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025/6/18 17:52:11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025/6/24 8:00:00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025/6/27 17:30:00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>邦总，从2025.06.24- 2025.06.2, 我想申请休假04天跟家庭去中国度假，烦请邦总给我审批，多谢！</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>审批通过</t>
@@ -1438,7 +1437,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Leave</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1448,52 +1447,48 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Annual leave</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>20250500354133</v>
+        <v>20240600349830</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dao Thi Ngan00354133</t>
+          <t>Nguyen Thi Van00349830</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>20250500354133</v>
+        <v>20240600349830</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dao Thi Ngan00354133</t>
+          <t>Nguyen Thi Van00349830</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025/6/24 20:19:09</t>
+          <t>2025/7/17 11:53:13</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025/6/24 8:30:00</t>
+          <t>2025/6/20 18:00:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025/6/24 12:30:00</t>
+          <t>2025/6/20 18:00:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Visiting Viettelnet to update information and introduction</t>
-        </is>
-      </c>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
           <t>审批通过</t>
@@ -1501,7 +1496,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Supp</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1511,50 +1506,51 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Replenishment</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20030810020940</v>
+        <v>20231000346969</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ho Duc Huy10020940</t>
+          <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>20030810020940</v>
+        <v>20231000346969</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ho Duc Huy10020940</t>
+          <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025/6/18 17:52:11</t>
+          <t>2025/6/20 15:23:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025/6/24 8:00:00</t>
+          <t>2025/6/20 14:30:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025/6/27 17:30:00</t>
+          <t>2025/6/20 19:00:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>年休假</t>
+          <t>市内出差</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>邦总，从2025.06.24- 2025.06.2, 我想申请休假04天跟家庭去中国度假，烦请邦总给我审批，多谢！</t>
+          <t>张哥好，
+今天我去内务局争取HE ER FU 和 JIA JING NAN劳动证。请你审批，信息你！</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1564,7 +1560,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Leave</t>
+          <t>Trip</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1574,40 +1570,40 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Annual leave</t>
+          <t>Trip</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20240600349830</v>
+        <v>20240610349369</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nguyen Thi Van00349830</t>
+          <t>TA TIEN THANH10349369</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20240600349830</v>
+        <v>20240610349369</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nguyen Thi Van00349830</t>
+          <t>TA TIEN THANH10349369</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025/7/17 11:53:13</t>
+          <t>2025/7/15 18:40:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025/6/20 18:00:00</t>
+          <t>2025/7/14 18:00:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025/6/20 18:00:00</t>
+          <t>2025/7/14 18:00:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1615,7 +1611,11 @@
           <t>个人补单</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Forget to sign out</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>审批通过</t>
@@ -1639,45 +1639,44 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20231000346969</v>
+        <v>20050210031021</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pham Thuy Linh00346969</t>
+          <t>Le Viet Hung10031021</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20231000346969</v>
+        <v>20050210031021</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Pham Thuy Linh00346969</t>
+          <t>Le Viet Hung10031021</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025/6/20 15:23:00</t>
+          <t>2025/7/14 0:22:40</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025/6/20 14:30:00</t>
+          <t>2025/7/14 8:00:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025/6/20 19:00:00</t>
+          <t>2025/7/18 17:30:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>市内出差</t>
+          <t>国内出差</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>张哥好，
-今天我去内务局争取HE ER FU 和 JIA JING NAN劳动证。请你审批，信息你！</t>
+          <t>To go to work with warranty centers in the South</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1703,34 +1702,34 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20240610349369</v>
+        <v>20180510241857</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TA TIEN THANH10349369</t>
+          <t>NGUYEN SON TOAN10241857</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>20240610349369</v>
+        <v>20180510241857</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TA TIEN THANH10349369</t>
+          <t>NGUYEN SON TOAN10241857</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025/7/15 18:40:30</t>
+          <t>2025/7/15 19:03:41</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025/7/14 18:00:00</t>
+          <t>2025/7/11 18:01:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025/7/14 18:00:00</t>
+          <t>2025/7/11 18:01:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1740,7 +1739,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Forget to sign out</t>
+          <t>周五下班较晚忘记打卡</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1766,44 +1765,44 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20050210031021</v>
+        <v>20250500354085</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Le Viet Hung10031021</t>
+          <t>Nguyen Van Phi Yen00354085</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20050210031021</v>
+        <v>20250500354085</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Le Viet Hung10031021</t>
+          <t>Nguyen Van Phi Yen00354085</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025/7/14 0:22:40</t>
+          <t>2025/7/15 10:13:53</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025/7/14 8:00:00</t>
+          <t>2025/7/11 17:34:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025/7/18 17:30:00</t>
+          <t>2025/7/11 17:34:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>国内出差</t>
+          <t>个人补单</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>To go to work with warranty centers in the South</t>
+          <t>Dear sir, I’m truly sorry for forgetting to check out because I was in a rush and didn’t mean to cause any trouble.</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1813,7 +1812,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Supp</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1823,180 +1822,180 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Replenishment</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>20180510241857</v>
+        <v>20240710350130</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NGUYEN SON TOAN10241857</t>
+          <t>Nguyen Tat Khoi10350130</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>20180510241857</v>
+        <v>20240710350130</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NGUYEN SON TOAN10241857</t>
+          <t>Nguyen Tat Khoi10350130</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025/7/15 19:03:41</t>
+          <t>2025/7/11 9:16:25</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025/7/11 18:01:00</t>
+          <t>2025/7/11 13:35:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025/7/11 18:01:00</t>
+          <t>2025/7/11 17:35:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>个人补单</t>
+          <t>年休假</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
-        <is>
-          <t>周五下班较晚忘记打卡</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>20250500354085</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Nguyen Van Phi Yen00354085</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>20250500354085</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Nguyen Van Phi Yen00354085</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2025/7/15 10:13:53</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025/7/11 17:34:00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025/7/11 17:34:00</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Dear sir, I’m truly sorry for forgetting to check out because I was in a rush and didn’t mean to cause any trouble.</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>20240710350130</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Nguyen Tat Khoi10350130</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>20240710350130</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Nguyen Tat Khoi10350130</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2025/7/11 9:16:25</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025/7/11 13:35:00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2025/7/11 17:35:00</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
         <is>
           <t>Dear Sir,
 I would like to take 1/2 day off today afternoon 11Jul
 Thanks</t>
         </is>
       </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20240610349944</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Le Ngoc Thang10349944</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>20240610349944</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Le Ngoc Thang10349944</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025/7/10 10:25:16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025/7/10 13:30:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025/7/10 17:30:00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Dear Sir. I would like to submit to take this afternoon off due to personal matters. Please help to review and approve. Thanks Sir!</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>20080310063060</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TRAN NGOC ANH10063060</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>20080310063060</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TRAN NGOC ANH10063060</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025/7/8 19:57:51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025/7/10 8:01:00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025/7/11 17:30:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Due to private reason that i would apply to take levave for two days 10th July and 11th July, please help to consider and approve for me. Thanks!</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
           <t>审批通过</t>
@@ -2020,107 +2019,107 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>20180510241857</v>
+        <v>20240610349369</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NGUYEN SON TOAN10241857</t>
+          <t>TA TIEN THANH10349369</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20180510241857</v>
+        <v>20240610349369</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NGUYEN SON TOAN10241857</t>
+          <t>TA TIEN THANH10349369</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025/7/15 19:01:19</t>
+          <t>2025/7/15 18:41:19</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025/7/11 8:01:00</t>
+          <t>2025/7/10 8:00:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025/7/11 8:01:00</t>
+          <t>2025/7/10 10:00:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>个人补单</t>
+          <t>市内出差</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>周五下班太晚，忘记打卡</t>
+          <t>Weekly meeting with customer at VNM office</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>已撤销</t>
+          <t>审批通过</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Supp</t>
+          <t>Trip</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Withdrawal</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Replenishment</t>
+          <t>Trip</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>20240610349944</v>
+        <v>20240610349370</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Le Ngoc Thang10349944</t>
+          <t>Nguyen Duc Hoa10349370</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>20240610349944</v>
+        <v>20240610349370</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Le Ngoc Thang10349944</t>
+          <t>Nguyen Duc Hoa10349370</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025/7/10 10:25:16</t>
+          <t>2025/7/10 19:01:22</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025/7/10 13:30:00</t>
+          <t>2025/7/9 18:01:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025/7/10 17:30:00</t>
+          <t>2025/7/9 18:01:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>年休假</t>
+          <t>个人补单</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Dear Sir. I would like to submit to take this afternoon off due to personal matters. Please help to review and approve. Thanks Sir!</t>
+          <t>I forgot to check out, plz approve for me. Thanks</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2130,7 +2129,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Leave</t>
+          <t>Supp</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2140,50 +2139,50 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Annual leave</t>
+          <t>Replenishment</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20080310063060</v>
+        <v>20240110348008</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRAN NGOC ANH10063060</t>
+          <t>Nguyen Dinh Quang10348008</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20080310063060</v>
+        <v>20240110348008</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TRAN NGOC ANH10063060</t>
+          <t>Nguyen Dinh Quang10348008</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025/7/8 19:57:51</t>
+          <t>2025/7/9 19:21:05</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025/7/10 8:01:00</t>
+          <t>2025/7/9 8:00:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025/7/11 17:30:00</t>
+          <t>2025/7/9 8:00:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>年休假</t>
+          <t>个人补单</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Due to private reason that i would apply to take levave for two days 10th July and 11th July, please help to consider and approve for me. Thanks!</t>
+          <t>I forgot to sign in this morning. Please help me to approve my correction application. Thanks sir</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2193,7 +2192,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Leave</t>
+          <t>Supp</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2203,50 +2202,50 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Annual leave</t>
+          <t>Replenishment</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>20240610349369</v>
+        <v>20070210046198</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TA TIEN THANH10349369</t>
+          <t>BUI BA UY10046198</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20240610349369</v>
+        <v>20070210046198</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TA TIEN THANH10349369</t>
+          <t>BUI BA UY10046198</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025/7/15 18:41:19</t>
+          <t>2025/7/7 18:40:14</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025/7/10 8:00:00</t>
+          <t>2025/7/8 8:00:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025/7/10 10:00:00</t>
+          <t>2025/7/18 18:00:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>市内出差</t>
+          <t>国内出差</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Weekly meeting with customer at VNM office</t>
+          <t>As assignment from PD Mr Chen Wei, I will go to Hochiminh city to support 5G TA testing offcial test. Pls help to approve my business trip. Thanks</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2272,34 +2271,34 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>20240610349370</v>
+        <v>20240110348008</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nguyen Duc Hoa10349370</t>
+          <t>Nguyen Dinh Quang10348008</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20240610349370</v>
+        <v>20240110348008</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Nguyen Duc Hoa10349370</t>
+          <t>Nguyen Dinh Quang10348008</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025/7/10 19:01:22</t>
+          <t>2025/7/9 19:20:02</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025/7/9 18:01:00</t>
+          <t>2025/7/7 8:00:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025/7/9 18:01:00</t>
+          <t>2025/7/7 8:00:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2309,7 +2308,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>I forgot to check out, plz approve for me. Thanks</t>
+          <t>I forgot to sign in in morning. Please help me to approve my correction application. Thanks sir</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2335,44 +2334,44 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>20240110348008</v>
+        <v>20240610349945</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nguyen Dinh Quang10348008</t>
+          <t>Mai The Dat10349945</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20240110348008</v>
+        <v>20240610349945</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Nguyen Dinh Quang10348008</t>
+          <t>Mai The Dat10349945</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025/7/9 19:21:05</t>
+          <t>2025/7/10 10:03:07</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025/7/9 8:00:00</t>
+          <t>2025/7/7 8:00:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025/7/9 8:00:00</t>
+          <t>2025/7/10 17:30:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>个人补单</t>
+          <t>市内出差</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>I forgot to sign in this morning. Please help me to approve my correction application. Thanks sir</t>
+          <t>Test inside temperature of DC mini for new biding.</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2382,7 +2381,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Supp</t>
+          <t>Trip</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2392,50 +2391,50 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Replenishment</t>
+          <t>Trip</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>20070210046198</v>
+        <v>20240610349368</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BUI BA UY10046198</t>
+          <t>Nguyen Minh Tri10349368</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20070210046198</v>
+        <v>20240610349368</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>BUI BA UY10046198</t>
+          <t>Nguyen Minh Tri10349368</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025/7/7 18:40:14</t>
+          <t>2025/7/11 9:08:59</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025/7/8 8:00:00</t>
+          <t>2025/7/4 8:01:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025/7/18 18:00:00</t>
+          <t>2025/7/4 8:01:00</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>国内出差</t>
+          <t>个人补单</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>As assignment from PD Mr Chen Wei, I will go to Hochiminh city to support 5G TA testing offcial test. Pls help to approve my business trip. Thanks</t>
+          <t>Dear Sir! I have work on this day normally, Pls help to review and approve. Thanks sir!</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2445,7 +2444,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Supp</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2455,50 +2454,50 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Replenishment</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>20240110348008</v>
+        <v>20160410201933</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nguyen Dinh Quang10348008</t>
+          <t>Nguyen Thanh Tuan10201933</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20240110348008</v>
+        <v>20160410201933</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Nguyen Dinh Quang10348008</t>
+          <t>Nguyen Thanh Tuan10201933</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025/7/9 19:20:02</t>
+          <t>2025/6/30 10:12:33</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025/7/7 8:00:00</t>
+          <t>2025/7/4 8:00:00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025/7/7 8:00:00</t>
+          <t>2025/7/4 17:30:00</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>个人补单</t>
+          <t>年休假</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>I forgot to sign in in morning. Please help me to approve my correction application. Thanks sir</t>
+          <t>I want to be off this Friday due to personal issue.</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2508,7 +2507,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Supp</t>
+          <t>Leave</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2518,7 +2517,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Replenishment</t>
+          <t>Annual leave</t>
         </is>
       </c>
     </row>
@@ -2541,17 +2540,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025/7/10 10:03:07</t>
+          <t>2025/7/10 10:00:49</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025/7/7 8:00:00</t>
+          <t>2025/7/4 8:00:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025/7/10 17:30:00</t>
+          <t>2025/7/4 17:30:00</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2561,7 +2560,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Test inside temperature of DC mini for new biding.</t>
+          <t>Test alarm funcion for Smart PDU.</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2587,237 +2586,238 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>20240610349368</v>
+        <v>20150410184732</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nguyen Minh Tri10349368</t>
+          <t>Pham Xuan Tuan10184732</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>20240610349368</v>
+        <v>20150410184732</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Nguyen Minh Tri10349368</t>
+          <t>Pham Xuan Tuan10184732</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025/7/11 9:08:59</t>
+          <t>2025/7/1 17:10:55</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025/7/4 8:01:00</t>
+          <t>2025/7/3 8:01:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025/7/4 8:01:00</t>
+          <t>2025/7/4 17:30:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>个人补单</t>
+          <t>年休假</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
-        <is>
-          <t>Dear Sir! I have work on this day normally, Pls help to review and approve. Thanks sir!</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>20160410201933</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Nguyen Thanh Tuan10201933</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>20160410201933</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Nguyen Thanh Tuan10201933</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>2025/6/30 10:12:33</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2025/7/4 8:00:00</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>2025/7/4 17:30:00</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>I want to be off this Friday due to personal issue.</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>Annual leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>20240610349945</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Mai The Dat10349945</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>20240610349945</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Mai The Dat10349945</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>2025/7/10 10:00:49</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2025/7/4 8:00:00</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>2025/7/4 17:30:00</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Test alarm funcion for Smart PDU.</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>20150410184732</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Pham Xuan Tuan10184732</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>20150410184732</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Pham Xuan Tuan10184732</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2025/7/1 17:10:55</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2025/7/3 8:01:00</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>2025/7/4 17:30:00</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
         <is>
           <t>Dear Mr ZhaoKai,
 I would like to apply 2 days off working from 3-July to 4-July for annual leave 
 Thank you very much!</t>
         </is>
       </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>20240610349369</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TA TIEN THANH10349369</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>20240610349369</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>TA TIEN THANH10349369</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2025/7/7 9:43:00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025/7/3 8:00:00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025/7/3 10:00:00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Weekly meeting with the customer at VNM office</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>20250510353735</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nguyen Nam Anh10353735</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>20250510353735</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Nguyen Nam Anh10353735</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2025/7/3 19:06:05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025/7/2 17:40:00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025/7/2 17:40:00</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Dear leader, I forgot to check out yesterday. Please approve my attendance correction. Thank you.</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>20211110316606</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nguyen Van Sang10316606</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>20211110316606</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Nguyen Van Sang10316606</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2025/7/3 12:19:29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025/7/2 8:02:00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2025/7/2 18:31:00</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Dear leader,
+I would like to inform you that on 02 July 2025, I visited the MTSO HCM site in C? Chi as part of audit MS. Due to the distance of approximately 40km from the office to the site, there was an adjustment in my attendance打卡 (attendance record)</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
           <t>审批通过</t>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Leave</t>
+          <t>Trip</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2835,40 +2835,40 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Annual leave</t>
+          <t>Trip</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20240610349369</v>
+        <v>20240610349945</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TA TIEN THANH10349369</t>
+          <t>Mai The Dat10349945</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>20240610349369</v>
+        <v>20240610349945</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>TA TIEN THANH10349369</t>
+          <t>Mai The Dat10349945</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025/7/7 9:43:00</t>
+          <t>2025/7/1 9:41:48</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025/7/3 8:00:00</t>
+          <t>2025/7/1 9:00:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025/7/3 10:00:00</t>
+          <t>2025/7/2 17:30:00</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Weekly meeting with the customer at VNM office</t>
+          <t>test the function of smart PDU - Alarm of smart CB for new biding.</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2904,44 +2904,45 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20250510353735</v>
+        <v>20080510068423</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nguyen Nam Anh10353735</t>
+          <t>LE THAI HOANG LONG10068423</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>20250510353735</v>
+        <v>20080510068423</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Nguyen Nam Anh10353735</t>
+          <t>LE THAI HOANG LONG10068423</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025/7/3 19:06:05</t>
+          <t>2025/6/30 17:44:22</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025/7/2 17:40:00</t>
+          <t>2025/7/1 8:01:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025/7/2 17:40:00</t>
+          <t>2025/7/2 17:30:00</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>个人补单</t>
+          <t>国内出差</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Dear leader, I forgot to check out yesterday. Please approve my attendance correction. Thank you.</t>
+          <t>go to Dong Nai warehouse Viettel VTT for good checking the second shipment of STB PO01 TO CONTRACT NO.: 2304-?TTS/VTT-ZTE/2025
+include 33.800 SBT,  2x40GP 2 container.</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2951,7 +2952,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Supp</t>
+          <t>Trip</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2961,7 +2962,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Replenishment</t>
+          <t>Trip</t>
         </is>
       </c>
     </row>
@@ -2984,28 +2985,27 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025/7/3 12:19:29</t>
+          <t>2025/7/1 9:14:07</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025/7/2 8:02:00</t>
+          <t>2025/6/30 18:05:00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025/7/2 18:31:00</t>
+          <t>2025/6/30 18:05:00</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>市内出差</t>
+          <t>个人补单</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Dear leader,
-I would like to inform you that on 02 July 2025, I visited the MTSO HCM site in C? Chi as part of audit MS. Due to the distance of approximately 40km from the office to the site, there was an adjustment in my attendance打卡 (attendance record)</t>
+          <t>Dear leader, I forget sign out at office on 30Jun. Pls review &amp; approve my corrective apllication!</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Supp</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3025,178 +3025,176 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Replenishment</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20150410184732</v>
+        <v>20220600329791</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Pham Xuan Tuan10184732</t>
+          <t>Pham Phuong Thuy00329791</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>20150410184732</v>
+        <v>20220600329791</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Pham Xuan Tuan10184732</t>
+          <t>Pham Phuong Thuy00329791</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025/6/25 11:10:53</t>
+          <t>2025/6/30 13:20:18</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025/7/2 8:00:00</t>
+          <t>2025/6/30 8:00:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025/7/4 17:30:00</t>
+          <t>2025/6/30 8:00:00</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>年休假</t>
+          <t>个人补单</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Dear Mr Zhao Kai,
-I would like to apply 3 days off working from July-2 to July-4 for annual leave. I will arrange my work and still on duty by phone for urgent task.
-Thank you very much!</t>
+          <t>Kindly approve my application for attendance correction due to forgetting to sign. Thank you!</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>已撤销</t>
+          <t>审批通过</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Leave</t>
+          <t>Supp</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Withdrawal</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Annual leave</t>
+          <t>Replenishment</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>20080310063060</v>
+        <v>20180510241857</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRAN NGOC ANH10063060</t>
+          <t>NGUYEN SON TOAN10241857</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>20080310063060</v>
+        <v>20180510241857</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>TRAN NGOC ANH10063060</t>
+          <t>NGUYEN SON TOAN10241857</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025/7/17 14:53:33</t>
+          <t>2025/6/25 10:41:56</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025/7/2 8:00:00</t>
+          <t>2025/6/27 8:00:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025/7/2 8:00:00</t>
+          <t>2025/6/27 17:30:00</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>个人补单</t>
+          <t>年休假</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Due to forget to scan card when i come to work, so i would like to apply forget card swipe, please help to consider, thanks!</t>
+          <t>凯总好，周五我请一天年假，打算回老家。相关工作和报告会提前安排好。 谢谢凯总</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>待审批</t>
+          <t>审批通过</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Supp</t>
+          <t>Leave</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Replenishment</t>
+          <t>Annual leave</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20240610349945</v>
+        <v>20240610349370</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mai The Dat10349945</t>
+          <t>Nguyen Duc Hoa10349370</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>20240610349945</v>
+        <v>20240610349370</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mai The Dat10349945</t>
+          <t>Nguyen Duc Hoa10349370</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025/7/1 9:41:48</t>
+          <t>2025/6/27 19:12:15</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025/7/1 9:00:00</t>
+          <t>2025/6/26 18:01:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025/7/2 17:30:00</t>
+          <t>2025/6/26 18:01:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>市内出差</t>
+          <t>个人补单</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>test the function of smart PDU - Alarm of smart CB for new biding.</t>
+          <t>I forgot to sign out,  plz approve. Thanks</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3206,7 +3204,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Supp</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3216,51 +3214,50 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Replenishment</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>20080510068423</v>
+        <v>20240610349369</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>LE THAI HOANG LONG10068423</t>
+          <t>TA TIEN THANH10349369</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>20080510068423</v>
+        <v>20240610349369</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LE THAI HOANG LONG10068423</t>
+          <t>TA TIEN THANH10349369</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025/6/30 17:44:22</t>
+          <t>2025/6/29 10:21:06</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025/7/1 8:01:00</t>
+          <t>2025/6/26 8:00:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025/7/2 17:30:00</t>
+          <t>2025/6/26 10:30:00</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>国内出差</t>
+          <t>市内出差</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>go to Dong Nai warehouse Viettel VTT for good checking the second shipment of STB PO01 TO CONTRACT NO.: 2304-?TTS/VTT-ZTE/2025
-include 33.800 SBT,  2x40GP 2 container.</t>
+          <t>Weekly meeting with the customer at VNM office</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3286,44 +3283,45 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>20211110316606</v>
+        <v>20220600329792</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nguyen Van Sang10316606</t>
+          <t>Nguyen Quynh Anh00329792</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>20211110316606</v>
+        <v>20220600329792</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Nguyen Van Sang10316606</t>
+          <t>Nguyen Quynh Anh00329792</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025/7/1 9:14:07</t>
+          <t>2025/6/25 13:00:32</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025/6/30 18:05:00</t>
+          <t>2025/6/25 13:49:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025/6/30 18:05:00</t>
+          <t>2025/6/25 17:49:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>个人补单</t>
+          <t>年休假</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Dear leader, I forget sign out at office on 30Jun. Pls review &amp; approve my corrective apllication!</t>
+          <t>Dear sir,
+Due to family’s issue, I would like to apply a half day off from 13:30pm to 18:00pm today. Please kindly approve. Many tha nks.</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3333,7 +3331,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Supp</t>
+          <t>Leave</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3343,50 +3341,50 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Replenishment</t>
+          <t>Annual leave</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>20220600329791</v>
+        <v>20070210046198</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pham Phuong Thuy00329791</t>
+          <t>BUI BA UY10046198</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>20220600329791</v>
+        <v>20070210046198</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Pham Phuong Thuy00329791</t>
+          <t>BUI BA UY10046198</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025/6/30 13:20:18</t>
+          <t>2025/6/25 17:57:27</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025/6/30 8:00:00</t>
+          <t>2025/6/25 8:00:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025/6/30 8:00:00</t>
+          <t>2025/7/4 18:00:00</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>个人补单</t>
+          <t>国内出差</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Kindly approve my application for attendance correction due to forgetting to sign. Thank you!</t>
+          <t>As assign from PD Mr Chen Wei, i will go to Ho Chi Minh city to support 5G TA testing. Pls help to approve my business trip. Thanks</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3396,7 +3394,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Supp</t>
+          <t>Trip</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3406,50 +3404,50 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Replenishment</t>
+          <t>Trip</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>20180510241857</v>
+        <v>20250510353735</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NGUYEN SON TOAN10241857</t>
+          <t>Nguyen Nam Anh10353735</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>20180510241857</v>
+        <v>20250510353735</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NGUYEN SON TOAN10241857</t>
+          <t>Nguyen Nam Anh10353735</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025/6/25 10:41:56</t>
+          <t>2025/6/25 17:01:51</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025/6/27 8:00:00</t>
+          <t>2025/6/25 8:00:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025/6/27 17:30:00</t>
+          <t>2025/6/25 8:00:00</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>年休假</t>
+          <t>个人补单</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>凯总好，周五我请一天年假，打算回老家。相关工作和报告会提前安排好。 谢谢凯总</t>
+          <t>Dear leader, I forgot to check in this morning. Please approve my attendance correction. Thank you.</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -3459,7 +3457,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Leave</t>
+          <t>Supp</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3469,50 +3467,50 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Annual leave</t>
+          <t>Replenishment</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>20240610349370</v>
+        <v>20240610349371</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Nguyen Duc Hoa10349370</t>
+          <t>Mai Viet Dung10349371</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20240610349370</v>
+        <v>20240610349371</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Nguyen Duc Hoa10349370</t>
+          <t>Mai Viet Dung10349371</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025/6/27 19:12:15</t>
+          <t>2025/6/19 16:58:41</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025/6/26 18:01:00</t>
+          <t>2025/6/24 8:00:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025/6/26 18:01:00</t>
+          <t>2025/9/30 17:30:00</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>个人补单</t>
+          <t>国际/中国港澳台出差</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>I forgot to sign out,  plz approve. Thanks</t>
+          <t>For working in Halotel project</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3522,7 +3520,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Supp</t>
+          <t>Trip</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3532,40 +3530,40 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Replenishment</t>
+          <t>Trip</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>20240610349369</v>
+        <v>20240610349945</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TA TIEN THANH10349369</t>
+          <t>Mai The Dat10349945</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>20240610349369</v>
+        <v>20240610349945</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>TA TIEN THANH10349369</t>
+          <t>Mai The Dat10349945</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025/6/29 10:21:06</t>
+          <t>2025/6/23 19:38:22</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025/6/26 8:00:00</t>
+          <t>2025/6/23 8:04:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025/6/26 10:30:00</t>
+          <t>2025/6/23 17:34:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3575,7 +3573,8 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Weekly meeting with the customer at VNM office</t>
+          <t>Go to warehouse to take PU2.5 warranty for customer
+Troubleshooting Solar site for customer</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3601,365 +3600,365 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>20220600329792</v>
+        <v>20150410184732</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Nguyen Quynh Anh00329792</t>
+          <t>Pham Xuan Tuan10184732</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>20220600329792</v>
+        <v>20150410184732</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Nguyen Quynh Anh00329792</t>
+          <t>Pham Xuan Tuan10184732</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025/6/25 13:00:32</t>
+          <t>2025/7/16 12:38:54</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025/6/25 13:49:00</t>
+          <t>2025/6/20 18:30:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025/6/25 17:49:00</t>
+          <t>2025/6/20 18:30:00</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>年休假</t>
+          <t>个人补单</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
-        <is>
-          <t>Dear sir,
-Due to family’s issue, I would like to apply a half day off from 13:30pm to 18:00pm today. Please kindly approve. Many tha nks.</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Annual leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>20070210046198</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>BUI BA UY10046198</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>20070210046198</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>BUI BA UY10046198</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>2025/6/25 17:57:27</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2025/6/25 8:00:00</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>2025/7/4 18:00:00</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>国内出差</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>As assign from PD Mr Chen Wei, i will go to Ho Chi Minh city to support 5G TA testing. Pls help to approve my business trip. Thanks</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>20250510353735</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Nguyen Nam Anh10353735</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>20250510353735</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Nguyen Nam Anh10353735</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>2025/6/25 17:01:51</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2025/6/25 8:00:00</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>2025/6/25 8:00:00</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Dear leader, I forgot to check in this morning. Please approve my attendance correction. Thank you.</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>20240610349371</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Mai Viet Dung10349371</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>20240610349371</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Mai Viet Dung10349371</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>2025/6/19 16:58:41</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2025/6/24 8:00:00</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>2025/9/30 17:30:00</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>国际/中国港澳台出差</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>For working in Halotel project</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>20240610349945</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Mai The Dat10349945</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>20240610349945</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Mai The Dat10349945</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>2025/6/23 19:38:22</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2025/6/23 8:04:00</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>2025/6/23 17:34:00</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Go to warehouse to take PU2.5 warranty for customer
-Troubleshooting Solar site for customer</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>20150410184732</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Pham Xuan Tuan10184732</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>20150410184732</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Pham Xuan Tuan10184732</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>2025/7/16 12:38:54</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2025/6/20 18:30:00</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>2025/6/20 18:30:00</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
         <is>
           <t>Dear Mr ZhaoKai,
 I would like to apply the missing record of attendance, in that day we invited SVTECH for dinner and I came to restaurant early to setup welcome customer.
 Thank you!</t>
         </is>
       </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>20080510068423</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>LE THAI HOANG LONG10068423</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>20080510068423</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>LE THAI HOANG LONG10068423</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2025/7/11 18:45:51</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025/6/20 17:30:00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2025/6/20 17:30:00</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>I remember already signed out, but later checking see no record.  I want to apply as the missing record , please approve. thanks</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>20250500354085</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Nguyen Van Phi Yen00354085</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>20250500354085</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Nguyen Van Phi Yen00354085</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2025/6/17 22:35:28</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025/6/20 8:00:00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2025/6/20 17:30:00</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>事假</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Dear Mr. Zhao Kai,
+I would like to request a day off as I need to go to my university to complete some important administrative procedures. Thank you for your understanding.</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2025/6/19 11:48:46</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2025/6/19 10:45:00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2025/6/20 17:30:00</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>国内出差</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Charge battery for Trial site at VNPT.  ZTE trial power version 6, we disconnect customer''s VLRA and connect LIB to Power system
+Now we need to charge VLRA for customer, and install lighting protection for Solar panel</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>20070210046198</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>BUI BA UY10046198</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>20070210046198</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>BUI BA UY10046198</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2025/6/11 17:04:13</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2025/6/12 8:00:00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2025/6/20 18:00:00</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>国内出差</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Follow the assignment from PD and TD, i will go to HCM to support trial test TA with VNTA. Thanks</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>20080710073657</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TRAN QUOC VIET10073657</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>20080710073657</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>TRAN QUOC VIET10073657</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2025/4/14 18:14:15</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2025/4/18 8:05:00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2025/7/17 17:35:00</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>国际/中国港澳台出差</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Go to Tanzania to support Halotel project</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr">
         <is>
           <t>审批通过</t>
@@ -3967,7 +3966,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Supp</t>
+          <t>Trip</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3977,50 +3976,50 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Replenishment</t>
+          <t>Trip</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>20080510068423</v>
+        <v>20231000346969</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>LE THAI HOANG LONG10068423</t>
+          <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>20080510068423</v>
+        <v>20231000346969</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LE THAI HOANG LONG10068423</t>
+          <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025/7/11 18:45:51</t>
+          <t>2025/7/11 15:47:45</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025/6/20 17:30:00</t>
+          <t>2025/7/11 15:00:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025/6/20 17:30:00</t>
+          <t>2025/7/11 19:00:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>个人补单</t>
+          <t>市内出差</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>I remember already signed out, but later checking see no record.  I want to apply as the missing record , please approve. thanks</t>
+          <t>张哥好，我去公安区给CHEN JIN JUN 办理暂住证做劳动证,  请你审批一下，谢谢！</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4030,7 +4029,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Supp</t>
+          <t>Trip</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4040,51 +4039,50 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Replenishment</t>
+          <t>Trip</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>20250500354085</v>
+        <v>20050900037581</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Nguyen Van Phi Yen00354085</t>
+          <t>DO THAI THU00037581</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>20250500354085</v>
+        <v>20050900037581</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Nguyen Van Phi Yen00354085</t>
+          <t>DO THAI THU00037581</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025/6/17 22:35:28</t>
+          <t>2025/7/5 10:36:31</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025/6/20 8:00:00</t>
+          <t>2025/7/11 8:01:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025/6/20 17:30:00</t>
+          <t>2025/7/11 17:30:00</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>事假</t>
+          <t>年休假</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Dear Mr. Zhao Kai,
-I would like to request a day off as I need to go to my university to complete some important administrative procedures. Thank you for your understanding.</t>
+          <t>带孩子去岘港参加国家篮球比赛</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -4104,51 +4102,50 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Leave</t>
+          <t>Annual leave</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>20240610349945</v>
+        <v>20070510049773</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mai The Dat10349945</t>
+          <t>Tran Tien Dung10049773</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>20240610349945</v>
+        <v>20070510049773</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Mai The Dat10349945</t>
+          <t>Tran Tien Dung10049773</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2025/6/19 11:48:46</t>
+          <t>2025/7/10 10:27:46</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025/6/19 10:45:00</t>
+          <t>2025/7/11 8:01:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025/6/20 17:30:00</t>
+          <t>2025/7/14 17:30:00</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>国内出差</t>
+          <t>年休假</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Charge battery for Trial site at VNPT.  ZTE trial power version 6, we disconnect customer''s VLRA and connect LIB to Power system
-Now we need to charge VLRA for customer, and install lighting protection for Solar panel</t>
+          <t>For 02 days annual leave.</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -4158,7 +4155,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Leave</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4168,50 +4165,50 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Annual leave</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>20070210046198</v>
+        <v>20050900037581</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BUI BA UY10046198</t>
+          <t>DO THAI THU00037581</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>20070210046198</v>
+        <v>20050900037581</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>BUI BA UY10046198</t>
+          <t>DO THAI THU00037581</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2025/6/11 17:04:13</t>
+          <t>2025/7/10 10:19:06</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025/6/12 8:00:00</t>
+          <t>2025/7/10 13:30:00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025/6/20 18:00:00</t>
+          <t>2025/7/10 17:30:00</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>国内出差</t>
+          <t>年休假</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Follow the assignment from PD and TD, i will go to HCM to support trial test TA with VNTA. Thanks</t>
+          <t>身体不好，腰疼，我请假去治疗一下</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4221,7 +4218,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Leave</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4231,50 +4228,50 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Annual leave</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>20080710073657</v>
+        <v>20231000346969</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRAN QUOC VIET10073657</t>
+          <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>20080710073657</v>
+        <v>20231000346969</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>TRAN QUOC VIET10073657</t>
+          <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2025/4/14 18:14:15</t>
+          <t>2025/7/11 15:49:13</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025/4/18 8:05:00</t>
+          <t>2025/7/7 15:00:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025/7/17 17:35:00</t>
+          <t>2025/7/7 19:00:00</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>国际/中国港澳台出差</t>
+          <t>市内出差</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Go to Tanzania to support Halotel project</t>
+          <t>张哥好，我去公安区给ZHANG YU HANG 办理暂住证做劳动证,  请你审批一下，谢谢！</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4300,108 +4297,107 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>20141100176921</v>
+        <v>20050900037581</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Nguyen Thi Minh Hanh00176921</t>
+          <t>DO THAI THU00037581</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>20141100176921</v>
+        <v>20050900037581</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Nguyen Thi Minh Hanh00176921</t>
+          <t>DO THAI THU00037581</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2025/7/17 14:50:52</t>
+          <t>2025/7/5 10:35:49</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025/7/14 8:00:00</t>
+          <t>2025/7/7 8:01:00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025/7/14 17:30:00</t>
+          <t>2025/7/7 17:30:00</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>病假</t>
+          <t>年休假</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Dear Sir, 
-On this day, I was sick. I had informed Mr Weiyong and asked for his acceptance. Please kindly approve. Thanks Sir.</t>
+          <t>带孩子去胡志明参加篮球比赛</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>待审批</t>
+          <t>审批通过</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Sick leave</t>
+          <t>Leave</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Sick leave</t>
+          <t>Annual leave</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>20231000346969</v>
+        <v>20030810020940</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Pham Thuy Linh00346969</t>
+          <t>Ho Duc Huy10020940</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>20231000346969</v>
+        <v>20030810020940</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Pham Thuy Linh00346969</t>
+          <t>Ho Duc Huy10020940</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2025/7/11 15:47:45</t>
+          <t>2025/7/9 19:45:29</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025/7/11 15:00:00</t>
+          <t>2025/7/7 8:00:00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025/7/11 19:00:00</t>
+          <t>2025/7/9 17:30:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>市内出差</t>
+          <t>国内出差</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>张哥好，我去公安区给CHEN JIN JUN 办理暂住证做劳动证,  请你审批一下，谢谢！</t>
+          <t>出差到中国深圳总部，接待越南互联网协会代表团</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4427,44 +4423,44 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>20050900037581</v>
+        <v>20110110120977</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DO THAI THU00037581</t>
+          <t>Pham Tri Dung10120977</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>20050900037581</v>
+        <v>20110110120977</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>DO THAI THU00037581</t>
+          <t>Pham Tri Dung10120977</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2025/7/5 10:36:31</t>
+          <t>2025/6/26 16:11:50</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025/7/11 8:01:00</t>
+          <t>2025/7/5 8:28:00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025/7/11 17:30:00</t>
+          <t>2025/7/13 17:58:00</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>年休假</t>
+          <t>国际/中国港澳台出差</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>带孩子去岘港参加国家篮球比赛</t>
+          <t>Join ZTE Dualforce Bootcamp trainning in Shenzhen.</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4474,7 +4470,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Leave</t>
+          <t>Trip</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4484,50 +4480,51 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Annual leave</t>
+          <t>Trip</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>20070510049773</v>
+        <v>20231000346969</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tran Tien Dung10049773</t>
+          <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>20070510049773</v>
+        <v>20231000346969</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Tran Tien Dung10049773</t>
+          <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2025/7/10 10:27:46</t>
+          <t>2025/7/3 16:11:14</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025/7/11 8:01:00</t>
+          <t>2025/7/3 15:00:00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025/7/14 17:30:00</t>
+          <t>2025/7/3 19:00:00</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>年休假</t>
+          <t>市内出差</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>For 02 days annual leave.</t>
+          <t>张哥好！
+WANG ZHENGYU 要准备材料做劳动证， 我去公安区给他办理暂住证，请你审批一下</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4537,7 +4534,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Leave</t>
+          <t>Trip</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4547,50 +4544,50 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Annual leave</t>
+          <t>Trip</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>20050900037581</v>
+        <v>20030810020940</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DO THAI THU00037581</t>
+          <t>Ho Duc Huy10020940</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>20050900037581</v>
+        <v>20030810020940</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>DO THAI THU00037581</t>
+          <t>Ho Duc Huy10020940</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2025/7/10 10:19:06</t>
+          <t>2025/7/3 23:59:43</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025/7/10 13:30:00</t>
+          <t>2025/7/1 8:01:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025/7/10 17:30:00</t>
+          <t>2025/7/1 8:01:00</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>年休假</t>
+          <t>个人补单</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>身体不好，腰疼，我请假去治疗一下</t>
+          <t>早上因为直接去Gtel不打卡，烦请领导审批，谢谢！</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4600,7 +4597,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Leave</t>
+          <t>Supp</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4610,50 +4607,51 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Annual leave</t>
+          <t>Replenishment</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>20231000346969</v>
+        <v>20141100176921</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Pham Thuy Linh00346969</t>
+          <t>Nguyen Thi Minh Hanh00176921</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>20231000346969</v>
+        <v>20141100176921</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Pham Thuy Linh00346969</t>
+          <t>Nguyen Thi Minh Hanh00176921</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2025/7/11 15:49:13</t>
+          <t>2025/7/2 16:15:43</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025/7/7 15:00:00</t>
+          <t>2025/6/30 8:00:00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025/7/7 19:00:00</t>
+          <t>2025/6/30 8:00:00</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>市内出差</t>
+          <t>个人补单</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>张哥好，我去公安区给ZHANG YU HANG 办理暂住证做劳动证,  请你审批一下，谢谢！</t>
+          <t>Dear Sir, 
+I scanned the attendance before 8am. However due to the system error, it did not record the scanning to the system. Pls kindly approve. Thank you, Sir.</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4663,7 +4661,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Supp</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4673,40 +4671,40 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Trip</t>
+          <t>Replenishment</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>20050900037581</v>
+        <v>20231000346969</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DO THAI THU00037581</t>
+          <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>20050900037581</v>
+        <v>20231000346969</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>DO THAI THU00037581</t>
+          <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2025/7/5 10:35:49</t>
+          <t>2025/6/26 15:49:16</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025/7/7 8:01:00</t>
+          <t>2025/6/27 8:00:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025/7/7 17:30:00</t>
+          <t>2025/6/27 17:30:00</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4715,785 +4713,342 @@
         </is>
       </c>
       <c r="I68" t="inlineStr">
-        <is>
-          <t>带孩子去胡志明参加篮球比赛</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>Annual leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>20030810020940</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Ho Duc Huy10020940</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>20030810020940</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Ho Duc Huy10020940</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>2025/7/9 19:45:29</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>2025/7/7 8:00:00</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>2025/7/9 17:30:00</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>国内出差</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>出差到中国深圳总部，接待越南互联网协会代表团</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>20110110120977</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Pham Tri Dung10120977</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>20110110120977</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Pham Tri Dung10120977</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>2025/6/26 16:11:50</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2025/7/5 8:28:00</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>2025/7/13 17:58:00</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>国际/中国港澳台出差</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Join ZTE Dualforce Bootcamp trainning in Shenzhen.</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>20110110120977</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Pham Tri Dung10120977</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>20110110120977</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Pham Tri Dung10120977</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>2025/6/26 12:52:15</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2025/7/4 12:28:00</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>2025/7/13 20:58:00</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>国际/中国港澳台出差</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>ZTE DualForce bootcamp program in Shenzhen city</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>已撤销</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Withdrawal</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>2025/7/3 16:11:14</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>2025/7/3 15:00:00</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>2025/7/3 19:00:00</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>张哥好！
-WANG ZHENGYU 要准备材料做劳动证， 我去公安区给他办理暂住证，请你审批一下</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>20030810020940</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Ho Duc Huy10020940</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>20030810020940</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Ho Duc Huy10020940</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>2025/7/3 23:59:43</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>2025/7/1 8:01:00</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>2025/7/1 8:01:00</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>早上因为直接去Gtel不打卡，烦请领导审批，谢谢！</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>20141100176921</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Nguyen Thi Minh Hanh00176921</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>20141100176921</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Nguyen Thi Minh Hanh00176921</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>2025/7/2 16:15:43</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2025/6/30 8:00:00</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>2025/6/30 8:00:00</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Dear Sir, 
-I scanned the attendance before 8am. However due to the system error, it did not record the scanning to the system. Pls kindly approve. Thank you, Sir.</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>2025/6/26 15:49:16</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>2025/6/27 8:00:00</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>2025/6/27 17:30:00</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
         <is>
           <t>领导好，
 我申请请休年假一天，请领导审批。
 谢谢！</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>Leave</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>Annual leave</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="69">
+      <c r="A69" t="n">
         <v>20231000346969</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
-      <c r="C76" t="n">
+      <c r="C69" t="n">
         <v>20231000346969</v>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2025/6/26 15:51:11</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>2025/6/26 15:00:00</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>2025/6/26 19:00:00</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>市内出差</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>张哥好，
 今天内务区约定提供HUANG TAI RONG劳动证，我去争取的。
 请领导审批。</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
         <v>20250500354133</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Dao Thi Ngan00354133</t>
         </is>
       </c>
-      <c r="C77" t="n">
+      <c r="C70" t="n">
         <v>20250500354133</v>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>Dao Thi Ngan00354133</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2025/6/24 20:19:09</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>2025/6/24 8:30:00</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>2025/6/24 12:30:00</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>市内出差</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>Visiting Viettelnet to update information and introduction</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
         <v>20030810020940</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>Ho Duc Huy10020940</t>
         </is>
       </c>
-      <c r="C78" t="n">
+      <c r="C71" t="n">
         <v>20030810020940</v>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>Ho Duc Huy10020940</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2025/6/18 17:52:11</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>2025/6/24 8:00:00</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>2025/6/27 17:30:00</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>年休假</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>邦总，从2025.06.24- 2025.06.2, 我想申请休假04天跟家庭去中国度假，烦请邦总给我审批，多谢！</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>Leave</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>Annual leave</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="72">
+      <c r="A72" t="n">
         <v>20240600349830</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>Nguyen Thi Van00349830</t>
         </is>
       </c>
-      <c r="C79" t="n">
+      <c r="C72" t="n">
         <v>20240600349830</v>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Nguyen Thi Van00349830</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2025/7/17 11:53:13</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>2025/6/20 18:00:00</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>2025/6/20 18:00:00</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>个人补单</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>Supp</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>Replenishment</t>
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="73">
+      <c r="A73" t="n">
         <v>20231000346969</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
-      <c r="C80" t="n">
+      <c r="C73" t="n">
         <v>20231000346969</v>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Pham Thuy Linh00346969</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2025/6/20 15:23:00</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>2025/6/20 14:30:00</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>2025/6/20 19:00:00</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>市内出差</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>张哥好，
 今天我去内务局争取HE ER FU 和 JIA JING NAN劳动证。请你审批，信息你！</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>Trip</t>
         </is>

--- a/uploads/temp_apply.xlsx
+++ b/uploads/temp_apply.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5054,6 +5054,5521 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>20090710091735</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Tu Huu Dat10091735</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>20090710091735</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Tu Huu Dat10091735</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2025/6/16 16:54:54</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2025/6/17 8:00:00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2025/6/24 17:30:00</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>I got the plan to take holiday with family from June 17-24, would like to apply those day off. if any urgent work I will process remotely.</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>20231010346941</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Tran The Phong10346941</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>20231010346941</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Tran The Phong10346941</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2025/6/18 18:20:32</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2025/6/15 8:00:00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2025/6/17 23:30:00</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Visit customer DTG and Vietnet in Ho Chi Minhnfor DongNai CDC bidding</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>20231010346941</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Tran The Phong10346941</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>20231010346941</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Tran The Phong10346941</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2025/6/18 18:15:55</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2025/6/2 14:00:00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2025/6/4 17:30:00</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Visit customer (Becamex + VNTT + Hoang Phuc) to introduce iDC</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>20231010346941</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Tran The Phong10346941</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>20231010346941</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Tran The Phong10346941</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2025/6/18 18:10:33</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2025/5/31 8:00:00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2025/6/1 17:30:00</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Come to visit site and have a activities with customer in HaLong</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>20210200297558</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Tran Thi Bich Thuy00297558</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>20210200297558</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Tran Thi Bich Thuy00297558</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2025/6/18 18:23:33</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2025/6/15 8:20:00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2025/6/17 17:50:00</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>在胡志明与客户进行项目交流，申请国内出差，请领导批准，谢谢！</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>20110110120918</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Nguyen Anh Quan10120918</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>20110110120918</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Nguyen Anh Quan10120918</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2025/6/16 19:16:11</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2025/6/13 8:30:00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2025/6/13 8:30:00</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>i would like to explain for your consideration as below: because of the traffic jam, so bus is late. thanks for your kind checking.</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2025/6/12 15:10:44</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2025/6/12 15:30:00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2025/6/12 17:30:00</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>去移民局提价SHI YI工作签加急申请 , ZENG HAN YUN , HONG JIA LIANG , FAN GUO JIAN加急 签证批文申请</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2025/6/12 16:05:01</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2025/6/12 15:15:00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2025/6/12 19:00:00</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>领导好，WANGXIANGYANG 劳动证已提出结果，我去内务局处理手续，请领导审批</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>20210200297558</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Tran Thi Bich Thuy00297558</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>20210200297558</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Tran Thi Bich Thuy00297558</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2025/6/18 18:18:13</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2025/6/12 8:20:00</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2025/6/12 17:50:00</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>与客户在咖啡店见面，咖啡店地点不在打卡的范围内。请领导批准，谢谢！</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>20210200297558</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Tran Thi Bich Thuy00297558</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>20210200297558</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Tran Thi Bich Thuy00297558</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2025/6/18 18:16:12</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2025/6/11 8:20:00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2025/6/11 17:50:00</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>与客户在咖啡店见面， 咖啡店地点不在打卡的范围内，请领导批准。谢谢</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>20110110120977</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Pham Tri Dung10120977</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>20110110120977</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Pham Tri Dung10120977</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2025/6/13 11:37:44</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2025/6/10 16:29:00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2025/6/10 19:59:00</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Meeting with FPT customer at coffeeshop to discuss and have dinner at restaurant</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>20150810192770</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Nguyen Tuan Minh10192770</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>20150810192770</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Nguyen Tuan Minh10192770</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2025/6/18 11:44:25</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2025/6/10 8:00:00</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2025/6/10 8:00:00</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Forget to swift card</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>20110110120918</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Nguyen Anh Quan10120918</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>20110110120918</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Nguyen Anh Quan10120918</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2025/6/16 19:18:17</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2025/6/10 8:00:00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2025/6/10 8:00:00</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>i would like to explain for your consideration as below: because of early meeting with customer, i was too focus on the meeting content, so i forgot to checkin in the morning. thanks for your kind checking.</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2025/6/17 11:07:18</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2025/6/10 8:00:00</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2025/6/10 17:30:00</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>当时生病请假</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>20150810192770</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Nguyen Tuan Minh10192770</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>20150810192770</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Nguyen Tuan Minh10192770</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2025/6/18 11:45:18</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2025/6/9 18:00:00</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2025/6/9 18:00:00</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Outsite to dinner with customers to collect and discuss about projects situation</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2025/6/9 16:04:56</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2025/6/9 15:05:00</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2025/6/9 19:00:00</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>领导好， 我正给JIA JING NAN HE HE ER FU 办理劳动挣,下午要来公安局办理暂住证证明。请领导审批！</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>20210200297558</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Tran Thi Bich Thuy00297558</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>20210200297558</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Tran Thi Bich Thuy00297558</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2025/6/18 18:12:26</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2025/6/9 8:20:00</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2025/6/9 17:50:00</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>要请客户晚餐，餐厅地点不在打卡的范围内。请领导批准，谢谢</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2025/6/17 10:03:09</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2025/6/9 8:00:00</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2025/6/9 17:30:00</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>上午去移民局提价员工工作签申请，下午去另外个一移民局汇报公司情况，没来得及回办公室打卡。</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>20110110120977</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Pham Tri Dung10120977</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>20110110120977</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Pham Tri Dung10120977</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2025/6/13 11:39:07</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2025/6/6 16:29:00</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2025/6/6 20:59:00</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Late discussing with FPT tecnical customer at restaurant.</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2025/6/6 15:27:57</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2025/6/6 14:30:00</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2025/6/6 18:30:00</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>领导好，WANG XIANG YANG  的劳动证已经准备够好材料，要去内政部提文件。请你审批！</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2025/6/6 9:16:39</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2025/6/5 17:40:00</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2025/6/5 17:40:00</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>去移民局给同事们办理工作签</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2025/6/4 15:29:10</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2025/6/4 14:30:00</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2025/6/4 18:50:00</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>领导好，_x000D_
+我正在给黄太荣办理劳动挣， 今下午要去公安去办理暂住证和处理发生的事情。 请领导审批！</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>20110110120977</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Pham Tri Dung10120977</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>20110110120977</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Pham Tri Dung10120977</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2025/6/13 11:43:59</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2025/6/4 7:29:00</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2025/6/4 9:59:00</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Early meeting with Mobifone customer at coffeeshop to discuss.</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2025/6/3 15:33:44</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2025/6/3 15:15:00</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2025/6/3 17:35:00</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>去移民局给LAN YAN FANG, CHEN JIANG LAI, LIU CHENG 办理工作签，领取其他人的工作签</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>20030810020940</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Ho Duc Huy10020940</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>20030810020940</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Ho Duc Huy10020940</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2025/6/2 23:22:33</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2025/6/2 8:00:00</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2025/6/4 17:30:00</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>去平阳省给VNTT客户做IDC和SOLAR产品技术宣讲</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>20250500354133</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Dao Thi Ngan00354133</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>20250500354133</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Dao Thi Ngan00354133</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2025/6/2 21:25:38</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2025/5/30 18:00:00</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2025/5/30 18:00:00</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>I forgot to check out. Kindly support to correct it. Thank you.</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>20210200297558</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Tran Thi Bich Thuy00297558</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>20210200297558</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Tran Thi Bich Thuy00297558</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2025/6/18 18:37:47</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2025/5/30 8:20:00</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2025/5/30 17:50:00</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>邀请客户晚餐，餐厅地点不在打卡的范围内，申请出差。请领导批准，谢谢</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>20150810192770</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Nguyen Tuan Minh10192770</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>20150810192770</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Nguyen Tuan Minh10192770</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2025/6/16 14:50:39</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2025/5/30 8:00:00</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2025/5/30 17:30:00</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Meeting outside with customers</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2025/5/29 15:38:36</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2025/5/29 15:25:00</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2025/5/29 18:00:00</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>去移民局给 LIN BO, LIN BO 家属，LU LEI, HE XIANG DONG 办理工作签</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>20210200297558</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Tran Thi Bich Thuy00297558</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>20210200297558</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Tran Thi Bich Thuy00297558</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2025/6/18 18:35:52</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2025/5/28 8:20:00</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2025/5/28 17:50:00</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">与客户在咖啡店见面， 咖啡店地点不在打卡的范围内，申请出差，请领导批准。谢谢_x000D_
+</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>20110110120977</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Pham Tri Dung10120977</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>20110110120977</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Pham Tri Dung10120977</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2025/6/13 11:31:49</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2025/5/26 8:00:00</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2025/5/26 10:00:00</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Early meeting with FPT customer at coffeeshop to discuss.</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>20240600349830</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Nguyen Thi Van00349830</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>20240600349830</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Nguyen Thi Van00349830</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2025/6/16 12:34:18</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2025/5/26 8:00:00</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2025/5/26 12:00:00</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>因身体不舒服，申请请假半天</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>20190200252191</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Tran Thi Thanh Van00252191</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>20190200252191</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Tran Thi Thanh Van00252191</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2025/5/23 15:35:38</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2025/5/23 14:45:00</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2025/5/23 17:41:00</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>张哥，我去内政部拿劳动证的结果哈，请你审批，谢谢！</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>20240600349830</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Nguyen Thi Van00349830</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>20240600349830</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Nguyen Thi Van00349830</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2025/6/16 12:32:54</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2025/5/23 8:00:00</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2025/5/23 8:00:00</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>因下班的时候忘记打卡，申请补单，请同意，谢谢</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>20110110120977</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Pham Tri Dung10120977</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>20110110120977</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Pham Tri Dung10120977</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2025/6/13 11:23:01</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2025/5/21 16:29:00</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2025/5/21 18:59:00</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Meeting with Mobifone customer and have dinner at restaurant.</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2025/6/19 11:48:46</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2025/6/19 10:45:00</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2025/6/20 17:30:00</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Charge battery for Trial site at VNPT.  ZTE trial power version 6, we disconnect customer''s VLRA and connect LIB to Power system_x000D_
+Now we need to charge VLRA for customer, and install lighting protection for Solar panel</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>20240610349369</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>TA TIEN THANH10349369</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>20240610349369</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>TA TIEN THANH10349369</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2025/6/18 14:39:19</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2025/6/19 8:00:00</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2025/6/19 10:00:00</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Weekly meeting with the customer at VNM office.</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>20240710350131</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Khuc Chi Luan10350131</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>20240710350131</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Khuc Chi Luan10350131</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2025/6/19 11:02:55</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2025/6/18 8:00:00</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>2025/6/18 17:31:00</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Sick leave</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Dear Mr.Zhao Kai,_x000D_
+_x000D_
+I had stomachache yesterday, so I could not go to work. Please help to approve for sick leave on 18 June 2025._x000D_
+_x000D_
+Thank,</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Sick leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>20240610349371</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Mai Viet Dung10349371</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>20240610349371</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Mai Viet Dung10349371</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2025/6/18 9:44:50</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2025/6/17 17:30:00</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2025/6/17 17:30:00</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Forgot to check out</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>20171100230806</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Tran Thi Hong Hanh00230806</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>20171100230806</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Tran Thi Hong Hanh00230806</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2025/6/17 19:23:46</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2025/6/17 8:00:00</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2025/6/17 8:00:00</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Please help to approve. Thanks sir.</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>20230410342818</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Nguyen Dang Binh10342818</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>20230410342818</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Nguyen Dang Binh10342818</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2025/6/18 19:06:46</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2025/6/16 18:30:00</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2025/6/16 18:30:00</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Dir Sir, I forgot sign on afternoon 16Jun2026.
+Please kindly approve my correction.
+Thanks.</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>20240610349369</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>TA TIEN THANH10349369</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>20240610349369</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>TA TIEN THANH10349369</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2025/6/18 14:37:16</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2025/6/16 8:00:00</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2025/6/16 8:00:00</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Forget to sign in.</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>20220600329792</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Nguyen Quynh Anh00329792</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>20220600329792</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Nguyen Quynh Anh00329792</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2025/6/13 9:42:14</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2025/6/13 13:36:00</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2025/6/13 17:36:00</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Dear sir,
+Due to some family’s issues, I would like to apply a half-day off today, from 01.30pm to 18:00pm.
+Please kindly approve. Many thanks</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>20070210046198</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>BUI BA UY10046198</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>20070210046198</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>BUI BA UY10046198</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2025/6/11 17:04:13</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2025/6/12 8:00:00</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2025/6/20 18:00:00</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Follow the assignment from PD and TD, i will go to HCM to support trial test TA with VNTA. Thanks</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>20240610349369</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>TA TIEN THANH10349369</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>20240610349369</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>TA TIEN THANH10349369</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2025/6/13 18:49:07</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2025/6/12 8:00:00</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>2025/6/12 10:00:00</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Meeting with the customer at VNM office</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>20160410201933</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Nguyen Thanh Tuan10201933</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>20160410201933</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Nguyen Thanh Tuan10201933</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2025/5/22 10:54:14</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2025/6/11 8:00:00</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>2025/6/13 17:30:00</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>I apply for family travelling</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>20240610349944</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Le Ngoc Thang10349944</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>20240610349944</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Le Ngoc Thang10349944</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2025/6/16 18:38:06</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2025/6/10 18:00:00</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>2025/6/10 18:00:00</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Dear Sir. This day, i forgot logout. Please Sir help to review and approve. Thanks!</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>20240610349369</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>TA TIEN THANH10349369</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>20240610349369</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>TA TIEN THANH10349369</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2025/6/13 18:48:15</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2025/6/9 8:25:00</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2025/6/9 8:25:00</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Forget to sign in</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>20250510353735</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Nguyen Nam Anh10353735</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>20250510353735</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Nguyen Nam Anh10353735</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2025/6/10 9:55:12</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2025/6/9 8:10:00</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2025/6/9 17:45:00</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Dear leader, I forgot to check in/out yesterday. Please approve my attendance correction. Thank you.</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>20130510151450</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>NGUYEN DUC HAI10151450</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>20130510151450</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>NGUYEN DUC HAI10151450</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2025/6/6 18:25:34</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2025/6/9 8:00:00</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>2025/6/9 17:30:00</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>I need dayoff 1 day for family''s work. Thanks for your approve.</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>20080510068423</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>LE THAI HOANG LONG10068423</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>20080510068423</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>LE THAI HOANG LONG10068423</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2025/6/8 17:37:31</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2025/6/9 8:00:00</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>2025/6/9 17:30:00</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Go to Viettel warehouse for checking and Handover DWDM equipment after warranty</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2025/6/12 16:27:03</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2025/6/9 8:00:00</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2025/6/13 17:30:00</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Check the power B301 Version 6 in Binh Thuan Province</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>20211010315283</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Pham Huy Ket10315283</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>20211010315283</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Pham Huy Ket10315283</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2025/6/17 18:14:42</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2025/6/9 8:00:00</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2025/6/9 8:00:00</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Dear Mr.Zhao Kai,
+On morning 09/June, i forgot to checkin when arrived office.Could you help me to check and confirm for my missed record.
+Many thanks for your understanding.</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>20211010315283</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Pham Huy Ket10315283</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>20211010315283</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Pham Huy Ket10315283</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2025/6/17 18:12:14</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2025/6/6 18:24:00</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2025/6/6 18:24:00</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Dear Mr.Zhao Kai,
+On 06/june, I went to Viettel's warehouse to handover new set top box shipment and got HOC.
+Could you help me to check and confirm for my missed record.
+Thanks for your support!</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2025/6/5 18:52:29</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2025/6/6 8:00:00</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2025/6/6 17:30:00</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Test power with POSTEF</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>20241200352730</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Do Thi Hang00352730</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>20241200352730</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Do Thi Hang00352730</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2025/6/6 9:27:13</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2025/6/5 13:00:00</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2025/6/5 13:00:00</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>凯总，我忘记打卡了。请通过谢谢～</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>20240610349369</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>TA TIEN THANH10349369</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>20240610349369</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>TA TIEN THANH10349369</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2025/6/6 18:43:29</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2025/6/5 8:00:00</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>2025/6/5 9:30:00</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Meeting with the customer at VNM office</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>20241200352730</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Do Thi Hang00352730</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>20241200352730</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Do Thi Hang00352730</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2025/6/4 9:46:20</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2025/6/5 8:00:00</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2025/6/5 12:00:00</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dear Mr. zhao Kai, I would like to request leave tomorrow morning (5/6/2025), from 8:00 AM to 12:00 PM, as I need to go to my university to submit my thesis and complete the graduation procedures.</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>20230410342818</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Nguyen Dang Binh10342818</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>20230410342818</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Nguyen Dang Binh10342818</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2025/6/16 14:15:37</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2025/6/4 18:30:00</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>2025/6/4 18:30:00</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Dear Sir.
+I forgot sign out on afternoon.
+Please kindly approve my connection !</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>20160410201933</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Nguyen Thanh Tuan10201933</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>20160410201933</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Nguyen Thanh Tuan10201933</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2025/6/2 17:13:14</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2025/6/4 8:03:00</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>2025/6/6 17:33:00</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>International/Hong Kong, Macao, and Taiwan business trips in China</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Visit Medfone CTO and technical center</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>International/Hong Kong, Macao, and Taiwan business trips in China</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>20151210196240</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>NGUYEN VAN CHUNG10196240</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>20151210196240</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>NGUYEN VAN CHUNG10196240</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2025/6/2 17:23:29</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2025/6/4 8:00:00</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2025/6/6 18:00:00</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>International/Hong Kong, Macao, and Taiwan business trips in China</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>I visit Cambodia Transmission Dept with MrJin and MrTuan. Pls approve for me. Thanks!</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>International/Hong Kong, Macao, and Taiwan business trips in China</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2025/6/2 17:12:51</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2025/6/3 8:00:00</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>2025/6/5 17:30:00</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>I am going to onsite to check the charge/discharge of Power system.</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>20070210046198</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>BUI BA UY10046198</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>20070210046198</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>BUI BA UY10046198</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2025/6/11 17:00:46</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2025/6/2 18:00:00</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>2025/6/2 18:00:00</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>I forgot to check out when back</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>20240110348008</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Nguyen Dinh Quang10348008</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>20240110348008</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Nguyen Dinh Quang10348008</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2025/6/17 17:34:46</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2025/6/2 8:00:00</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>2025/6/2 8:00:00</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>I forgot to sign in ontime that day. Please help to approve my application. Thanks sir</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>20150410184732</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Pham Xuan Tuan10184732</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>20150410184732</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Pham Xuan Tuan10184732</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2025/6/16 12:59:50</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2025/5/30 19:06:00</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>2025/5/30 19:06:00</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Dear Mr Zhaokai,_x000D_
+I would like to apply for a missed record in Friday afternoon (May 30), I forgot to swipe the card, kindly review_x000D_
+Thank you very much!</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>20220600329792</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Nguyen Quynh Anh00329792</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>20220600329792</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Nguyen Quynh Anh00329792</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2025/6/18 19:32:38</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2025/5/29 18:00:00</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2025/5/29 18:00:00</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Dear sir, I forgot to punch card while leaving, please kindly approve.</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>20250500354085</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Nguyen Van Phi Yen00354085</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>20250500354085</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Nguyen Van Phi Yen00354085</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2025/5/30 9:16:37</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2025/5/29 17:35:00</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>2025/5/29 17:35:00</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Sorry, I forgot to check out due to being in a rush</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>20240710350131</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Khuc Chi Luan10350131</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>20240710350131</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Khuc Chi Luan10350131</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2025/5/30 10:01:03</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2025/5/29 8:00:00</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2025/5/29 17:30:00</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Dear Mr.Zhao Kai,_x000D_
+_x000D_
+Due to personal work, so I would like to take annual leave on 29 May 2025. Please help to review and approve this one._x000D_
+_x000D_
+Thanks,</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2025/5/29 8:48:24</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2025/5/29 8:00:00</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>2025/5/29 17:30:00</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Check charge/discharge current for Power Version 6.</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>20211110316606</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Nguyen Van Sang10316606</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>20211110316606</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Nguyen Van Sang10316606</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2025/6/2 11:32:52</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2025/5/29 8:00:00</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2025/5/29 8:00:00</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Dear leader, I fogot to sign in on morning, 29 May. Could you please review &amp; approve my correct application?</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>20240710350130</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Nguyen Tat Khoi10350130</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>20240710350130</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Nguyen Tat Khoi10350130</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2025/6/16 17:29:07</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2025/5/27 18:00:00</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>2025/5/27 18:00:00</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Dear Sir
+I would like to correct my attendance, sorry for any inconvenience 
+Thanks</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2025/5/29 8:51:46</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2025/5/27 8:00:00</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>2025/5/28 17:30:00</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Go to Dong Anh warehouse to check Power version 6.</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>20240110348008</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Nguyen Dinh Quang10348008</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>20240110348008</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Nguyen Dinh Quang10348008</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2025/5/29 11:46:37</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2025/5/27 8:00:00</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>2025/5/27 8:00:00</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>I forgot to sign in that day. Please help to approve this application. Thank sir</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>20211010315283</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Pham Huy Ket10315283</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>20211010315283</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Pham Huy Ket10315283</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2025/5/28 9:50:33</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2025/5/27 8:00:00</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>2025/5/28 17:30:00</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Dear Mr. Zhao Kai. I would like to extend my business trip to more two days( on 27/May to 28/May). Could you help me to check and confirm it. Thanks</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>20070210046198</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>BUI BA UY10046198</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>20070210046198</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>BUI BA UY10046198</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2025/5/26 9:38:06</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2025/5/26 8:00:00</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2025/5/30 17:30:00</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>As assign from PD and TD, I will go to Hochiminh to support for VNPT 5G TA testing for some days. Discuss and communicate with VNTA guys</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>20080510068423</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>LE THAI HOANG LONG10068423</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>20080510068423</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>LE THAI HOANG LONG10068423</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2025/5/25 20:34:05</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2025/5/26 8:00:00</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>2025/5/27 17:30:00</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Go to Dong Nai for good checking shipment of 36.800 Setup box handover and get the sign of HOC</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>20250510353735</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Nguyen Nam Anh10353735</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>20250510353735</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Nguyen Nam Anh10353735</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2025/5/26 12:37:19</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2025/5/23 17:40:00</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2025/5/23 17:40:00</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>Dear leader, I forgot to check out on 23th May. Please approve my attendance correction. Thank you.</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>20240610349370</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Nguyen Duc Hoa10349370</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>20240610349370</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Nguyen Duc Hoa10349370</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2025/5/22 12:47:29</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2025/5/23 8:00:00</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2025/5/24 18:39:00</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Traveling to Ha Tinh, Nghe An to audit quality of PM, depot skills and compliance from 23 to 24 May 2025.</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2025/5/22 18:27:14</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2025/5/23 8:00:00</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>2025/5/23 17:30:00</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>I goto Hoa Lac to KCS with Viettel</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>Urban business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>20080510068423</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>LE THAI HOANG LONG10068423</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>20080510068423</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>LE THAI HOANG LONG10068423</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2025/5/22 18:45:58</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2025/5/23 8:00:00</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2025/5/23 17:30:00</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Go to Binh Phuoc province to borrow 3 SAIP board and 7 module for custom checking ( viettel DWDM)</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>Domestic business trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>20241200352730</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Do Thi Hang00352730</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>20241200352730</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Do Thi Hang00352730</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2025/5/23 9:25:40</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2025/5/22 8:00:00</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>2025/5/22 8:00:00</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>凯总，我昨天忘记打卡所以打卡晚了</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>20220600329792</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Nguyen Quynh Anh00329792</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>20220600329792</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Nguyen Quynh Anh00329792</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>2025/6/18 19:33:37</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2025/5/21 18:00:00</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>2025/5/21 18:00:00</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Dear sir, I forgot to punch card while leaving, please kindly approve</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>20211110316606</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Nguyen Van Sang10316606</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>20211110316606</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Nguyen Van Sang10316606</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2025/5/20 18:22:27</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2025/5/20 17:21:00</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>2025/5/20 17:21:00</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Personal Replenishment</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Dear leader,_x000D_
+I forget to sign in on 25 Apr, could you please review &amp; approve my correct submission?</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>20240710350130</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Nguyen Tat Khoi10350130</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>20240710350130</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Nguyen Tat Khoi10350130</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2025/5/20 20:07:51</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2025/5/20 13:52:00</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>2025/5/20 17:52:00</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Dear sir,
+I would like to take afternoon off for family work
+Thanks</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>20211010315283</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Pham Huy Ket10315283</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>20211010315283</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Pham Huy Ket10315283</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>2025/5/16 18:23:58</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2025/5/19 8:00:00</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2025/5/26 18:00:00</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>International/Hong Kong, Macao, and Taiwan business trips in China</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>Dear Mr.Zhao Kai,
+Based one arrangement, I will go to Laos on nextweek to support upgrade 5 switches in Unitel project
+Could you help me to check and confirm for my plan
+Many thanks for your support!</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>International/Hong Kong, Macao, and Taiwan business trips in China</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>20080510067948</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>NGUYEN TIEN HUNG10067948</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>20080510067948</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>NGUYEN TIEN HUNG10067948</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2025/5/21 9:40:09</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2025/5/12 8:00:00</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>2025/5/20 17:35:00</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Sick leave</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>I met problem about health .So i would like apply Sick Leave from 12/5 -&gt;20/5 . _x000D_
+Please approve ._x000D_
+Thanks you</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>Sick leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>20080710073657</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>TRAN QUOC VIET10073657</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>20080710073657</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>TRAN QUOC VIET10073657</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>2025/4/14 18:14:15</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2025/4/18 8:05:00</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2025/7/17 17:35:00</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>International/Hong Kong, Macao, and Taiwan business trips in China</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>Go to Tanzania to support Halotel project</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>International/Hong Kong, Macao, and Taiwan business trips in China</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/uploads/temp_apply.xlsx
+++ b/uploads/temp_apply.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M88"/>
+  <dimension ref="A1:M160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6015,6 +6015,4560 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2025/7/11 15:47:45</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2025/7/11 15:00:00</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2025/7/11 19:00:00</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>张哥好，我去公安区给CHEN JIN JUN 办理暂住证做劳动证,  请你审批一下，谢谢！</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2025/7/5 10:36:31</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2025/7/11 8:01:00</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2025/7/11 17:30:00</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>带孩子去岘港参加国家篮球比赛</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>20070510049773</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Tran Tien Dung10049773</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>20070510049773</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Tran Tien Dung10049773</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2025/7/10 10:27:46</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2025/7/11 8:01:00</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2025/7/14 17:30:00</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>For 02 days annual leave.</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2025/7/10 10:19:06</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2025/7/10 13:30:00</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2025/7/10 17:30:00</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>身体不好，腰疼，我请假去治疗一下</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2025/7/11 15:49:13</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2025/7/7 15:00:00</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2025/7/7 19:00:00</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>张哥好，我去公安区给ZHANG YU HANG 办理暂住证做劳动证,  请你审批一下，谢谢！</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2025/7/5 10:35:49</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2025/7/7 8:01:00</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2025/7/7 17:30:00</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>带孩子去胡志明参加篮球比赛</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>20030810020940</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Ho Duc Huy10020940</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>20030810020940</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Ho Duc Huy10020940</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2025/7/9 19:45:29</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2025/7/7 8:00:00</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2025/7/9 17:30:00</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>国内出差</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>出差到中国深圳总部，接待越南互联网协会代表团</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>20110110120977</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Pham Tri Dung10120977</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>20110110120977</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Pham Tri Dung10120977</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2025/6/26 16:11:50</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2025/7/5 8:28:00</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2025/7/13 17:58:00</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>国际/中国港澳台出差</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Join ZTE Dualforce Bootcamp trainning in Shenzhen.</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2025/7/3 16:11:14</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2025/7/3 15:00:00</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2025/7/3 19:00:00</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>张哥好！
+WANG ZHENGYU 要准备材料做劳动证， 我去公安区给他办理暂住证，请你审批一下</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>20030810020940</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Ho Duc Huy10020940</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>20030810020940</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Ho Duc Huy10020940</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2025/7/3 23:59:43</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2025/7/1 8:01:00</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2025/7/1 8:01:00</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>早上因为直接去Gtel不打卡，烦请领导审批，谢谢！</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>20141100176921</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Nguyen Thi Minh Hanh00176921</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>20141100176921</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Nguyen Thi Minh Hanh00176921</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2025/7/2 16:15:43</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2025/6/30 8:00:00</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2025/6/30 8:00:00</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Dear Sir, 
+I scanned the attendance before 8am. However due to the system error, it did not record the scanning to the system. Pls kindly approve. Thank you, Sir.</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2025/6/26 15:49:16</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2025/6/27 8:00:00</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2025/6/27 17:30:00</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>领导好，
+我申请请休年假一天，请领导审批。
+谢谢！</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2025/6/26 15:51:11</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2025/6/26 15:00:00</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2025/6/26 19:00:00</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>张哥好，
+今天内务区约定提供HUANG TAI RONG劳动证，我去争取的。
+请领导审批。</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>20250500354133</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Dao Thi Ngan00354133</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>20250500354133</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Dao Thi Ngan00354133</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2025/6/24 20:19:09</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2025/6/24 8:30:00</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2025/6/24 12:30:00</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Visiting Viettelnet to update information and introduction</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>20030810020940</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Ho Duc Huy10020940</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>20030810020940</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Ho Duc Huy10020940</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2025/6/18 17:52:11</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2025/6/24 8:00:00</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2025/6/27 17:30:00</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>邦总，从2025.06.24- 2025.06.2, 我想申请休假04天跟家庭去中国度假，烦请邦总给我审批，多谢！</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>20240600349830</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Nguyen Thi Van00349830</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>20240600349830</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Nguyen Thi Van00349830</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2025/7/17 11:53:13</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2025/6/20 18:00:00</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2025/6/20 18:00:00</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2025/6/20 15:23:00</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2025/6/20 14:30:00</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2025/6/20 19:00:00</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>张哥好，
+今天我去内务局争取HE ER FU 和 JIA JING NAN劳动证。请你审批，信息你！</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>20240610349369</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>TA TIEN THANH10349369</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>20240610349369</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>TA TIEN THANH10349369</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2025/7/15 18:40:30</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2025/7/14 18:00:00</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2025/7/14 18:00:00</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Forget to sign out</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>20050210031021</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Le Viet Hung10031021</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>20050210031021</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Le Viet Hung10031021</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2025/7/14 0:22:40</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2025/7/14 8:00:00</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2025/7/18 17:30:00</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>国内出差</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>To go to work with warranty centers in the South</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>20180510241857</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>NGUYEN SON TOAN10241857</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>20180510241857</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>NGUYEN SON TOAN10241857</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2025/7/15 19:03:41</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2025/7/11 18:01:00</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2025/7/11 18:01:00</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>周五下班较晚忘记打卡</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>20250500354085</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Nguyen Van Phi Yen00354085</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>20250500354085</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Nguyen Van Phi Yen00354085</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2025/7/15 10:13:53</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2025/7/11 17:34:00</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2025/7/11 17:34:00</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Dear sir, I’m truly sorry for forgetting to check out because I was in a rush and didn’t mean to cause any trouble.</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>20240710350130</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Nguyen Tat Khoi10350130</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>20240710350130</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Nguyen Tat Khoi10350130</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2025/7/11 9:16:25</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2025/7/11 13:35:00</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2025/7/11 17:35:00</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Dear Sir,
+I would like to take 1/2 day off today afternoon 11Jul
+Thanks</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>20240610349944</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Le Ngoc Thang10349944</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>20240610349944</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Le Ngoc Thang10349944</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2025/7/10 10:25:16</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2025/7/10 13:30:00</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>2025/7/10 17:30:00</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Dear Sir. I would like to submit to take this afternoon off due to personal matters. Please help to review and approve. Thanks Sir!</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>20080310063060</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>TRAN NGOC ANH10063060</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>20080310063060</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>TRAN NGOC ANH10063060</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2025/7/8 19:57:51</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2025/7/10 8:01:00</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2025/7/11 17:30:00</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Due to private reason that i would apply to take levave for two days 10th July and 11th July, please help to consider and approve for me. Thanks!</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>20240610349369</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>TA TIEN THANH10349369</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>20240610349369</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>TA TIEN THANH10349369</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2025/7/15 18:41:19</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2025/7/10 8:00:00</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2025/7/10 10:00:00</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Weekly meeting with customer at VNM office</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>20240610349370</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Nguyen Duc Hoa10349370</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>20240610349370</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Nguyen Duc Hoa10349370</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2025/7/10 19:01:22</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2025/7/9 18:01:00</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2025/7/9 18:01:00</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>I forgot to check out, plz approve for me. Thanks</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>20240110348008</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Nguyen Dinh Quang10348008</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>20240110348008</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Nguyen Dinh Quang10348008</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2025/7/9 19:21:05</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2025/7/9 8:00:00</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2025/7/9 8:00:00</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>I forgot to sign in this morning. Please help me to approve my correction application. Thanks sir</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>20070210046198</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>BUI BA UY10046198</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>20070210046198</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>BUI BA UY10046198</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2025/7/7 18:40:14</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2025/7/8 8:00:00</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2025/7/18 18:00:00</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>国内出差</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>As assignment from PD Mr Chen Wei, I will go to Hochiminh city to support 5G TA testing offcial test. Pls help to approve my business trip. Thanks</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>20240110348008</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Nguyen Dinh Quang10348008</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>20240110348008</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Nguyen Dinh Quang10348008</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2025/7/9 19:20:02</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2025/7/7 8:00:00</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2025/7/7 8:00:00</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>I forgot to sign in in morning. Please help me to approve my correction application. Thanks sir</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2025/7/10 10:03:07</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2025/7/7 8:00:00</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>2025/7/10 17:30:00</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Test inside temperature of DC mini for new biding.</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>20240610349368</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Nguyen Minh Tri10349368</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>20240610349368</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Nguyen Minh Tri10349368</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2025/7/11 9:08:59</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2025/7/4 8:01:00</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>2025/7/4 8:01:00</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Dear Sir! I have work on this day normally, Pls help to review and approve. Thanks sir!</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>20160410201933</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Nguyen Thanh Tuan10201933</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>20160410201933</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Nguyen Thanh Tuan10201933</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2025/6/30 10:12:33</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2025/7/4 8:00:00</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>2025/7/4 17:30:00</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>I want to be off this Friday due to personal issue.</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2025/7/10 10:00:49</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2025/7/4 8:00:00</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2025/7/4 17:30:00</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Test alarm funcion for Smart PDU.</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>20150410184732</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Pham Xuan Tuan10184732</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>20150410184732</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Pham Xuan Tuan10184732</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2025/7/1 17:10:55</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2025/7/3 8:01:00</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2025/7/4 17:30:00</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Dear Mr ZhaoKai,
+I would like to apply 2 days off working from 3-July to 4-July for annual leave 
+Thank you very much!</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>20240610349369</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>TA TIEN THANH10349369</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>20240610349369</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>TA TIEN THANH10349369</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2025/7/7 9:43:00</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2025/7/3 8:00:00</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>2025/7/3 10:00:00</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Weekly meeting with the customer at VNM office</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>20250510353735</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Nguyen Nam Anh10353735</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>20250510353735</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Nguyen Nam Anh10353735</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2025/7/3 19:06:05</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2025/7/2 17:40:00</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>2025/7/2 17:40:00</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Dear leader, I forgot to check out yesterday. Please approve my attendance correction. Thank you.</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>20211110316606</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Nguyen Van Sang10316606</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>20211110316606</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Nguyen Van Sang10316606</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2025/7/3 12:19:29</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2025/7/2 8:02:00</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2025/7/2 18:31:00</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Dear leader,
+I would like to inform you that on 02 July 2025, I visited the MTSO HCM site in C? Chi as part of audit MS. Due to the distance of approximately 40km from the office to the site, there was an adjustment in my attendance打卡 (attendance record)</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2025/7/1 9:41:48</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2025/7/1 9:00:00</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2025/7/2 17:30:00</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>test the function of smart PDU - Alarm of smart CB for new biding.</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>20080510068423</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>LE THAI HOANG LONG10068423</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>20080510068423</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>LE THAI HOANG LONG10068423</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2025/6/30 17:44:22</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2025/7/1 8:01:00</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2025/7/2 17:30:00</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>国内出差</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>go to Dong Nai warehouse Viettel VTT for good checking the second shipment of STB PO01 TO CONTRACT NO.: 2304-?TTS/VTT-ZTE/2025
+include 33.800 SBT,  2x40GP 2 container.</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>20211110316606</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Nguyen Van Sang10316606</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>20211110316606</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Nguyen Van Sang10316606</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2025/7/1 9:14:07</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2025/6/30 18:05:00</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2025/6/30 18:05:00</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Dear leader, I forget sign out at office on 30Jun. Pls review &amp; approve my corrective apllication!</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>20220600329791</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Pham Phuong Thuy00329791</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>20220600329791</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Pham Phuong Thuy00329791</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2025/6/30 13:20:18</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2025/6/30 8:00:00</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2025/6/30 8:00:00</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Kindly approve my application for attendance correction due to forgetting to sign. Thank you!</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>20180510241857</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>NGUYEN SON TOAN10241857</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>20180510241857</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>NGUYEN SON TOAN10241857</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2025/6/25 10:41:56</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2025/6/27 8:00:00</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>2025/6/27 17:30:00</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>凯总好，周五我请一天年假，打算回老家。相关工作和报告会提前安排好。 谢谢凯总</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>20240610349370</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Nguyen Duc Hoa10349370</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>20240610349370</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Nguyen Duc Hoa10349370</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2025/6/27 19:12:15</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2025/6/26 18:01:00</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2025/6/26 18:01:00</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>I forgot to sign out,  plz approve. Thanks</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>20240610349369</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>TA TIEN THANH10349369</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>20240610349369</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>TA TIEN THANH10349369</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2025/6/29 10:21:06</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2025/6/26 8:00:00</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>2025/6/26 10:30:00</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Weekly meeting with the customer at VNM office</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>20220600329792</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Nguyen Quynh Anh00329792</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>20220600329792</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Nguyen Quynh Anh00329792</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2025/6/25 13:00:32</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2025/6/25 13:49:00</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>2025/6/25 17:49:00</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Dear sir,
+Due to family’s issue, I would like to apply a half day off from 13:30pm to 18:00pm today. Please kindly approve. Many tha nks.</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>20070210046198</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>BUI BA UY10046198</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>20070210046198</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>BUI BA UY10046198</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2025/6/25 17:57:27</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2025/6/25 8:00:00</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2025/7/4 18:00:00</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>国内出差</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>As assign from PD Mr Chen Wei, i will go to Ho Chi Minh city to support 5G TA testing. Pls help to approve my business trip. Thanks</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>20250510353735</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Nguyen Nam Anh10353735</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>20250510353735</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Nguyen Nam Anh10353735</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2025/6/25 17:01:51</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2025/6/25 8:00:00</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>2025/6/25 8:00:00</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Dear leader, I forgot to check in this morning. Please approve my attendance correction. Thank you.</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>20240610349371</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Mai Viet Dung10349371</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>20240610349371</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Mai Viet Dung10349371</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2025/6/19 16:58:41</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2025/6/24 8:00:00</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>2025/9/30 17:30:00</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>国际/中国港澳台出差</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>For working in Halotel project</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2025/6/23 19:38:22</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2025/6/23 8:04:00</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>2025/6/23 17:34:00</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Go to warehouse to take PU2.5 warranty for customer
+Troubleshooting Solar site for customer</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>20150410184732</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Pham Xuan Tuan10184732</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>20150410184732</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Pham Xuan Tuan10184732</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2025/7/16 12:38:54</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2025/6/20 18:30:00</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>2025/6/20 18:30:00</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Dear Mr ZhaoKai,
+I would like to apply the missing record of attendance, in that day we invited SVTECH for dinner and I came to restaurant early to setup welcome customer.
+Thank you!</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>20080510068423</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>LE THAI HOANG LONG10068423</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>20080510068423</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>LE THAI HOANG LONG10068423</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2025/7/11 18:45:51</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2025/6/20 17:30:00</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2025/6/20 17:30:00</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>I remember already signed out, but later checking see no record.  I want to apply as the missing record , please approve. thanks</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>20250500354085</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Nguyen Van Phi Yen00354085</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>20250500354085</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Nguyen Van Phi Yen00354085</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2025/6/17 22:35:28</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2025/6/20 8:00:00</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>2025/6/20 17:30:00</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>事假</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Dear Mr. Zhao Kai,
+I would like to request a day off as I need to go to my university to complete some important administrative procedures. Thank you for your understanding.</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>20240610349945</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Mai The Dat10349945</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2025/6/19 11:48:46</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2025/6/19 10:45:00</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2025/6/20 17:30:00</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>国内出差</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Charge battery for Trial site at VNPT.  ZTE trial power version 6, we disconnect customer''s VLRA and connect LIB to Power system
+Now we need to charge VLRA for customer, and install lighting protection for Solar panel</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>20070210046198</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>BUI BA UY10046198</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>20070210046198</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>BUI BA UY10046198</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2025/6/11 17:04:13</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2025/6/12 8:00:00</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>2025/6/20 18:00:00</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>国内出差</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Follow the assignment from PD and TD, i will go to HCM to support trial test TA with VNTA. Thanks</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>20080710073657</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>TRAN QUOC VIET10073657</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>20080710073657</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>TRAN QUOC VIET10073657</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2025/4/14 18:14:15</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2025/4/18 8:05:00</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2025/7/17 17:35:00</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>国际/中国港澳台出差</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Go to Tanzania to support Halotel project</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2025/7/11 15:47:45</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2025/7/11 15:00:00</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>2025/7/11 19:00:00</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>张哥好，我去公安区给CHEN JIN JUN 办理暂住证做劳动证,  请你审批一下，谢谢！</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2025/7/5 10:36:31</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2025/7/11 8:01:00</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>2025/7/11 17:30:00</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>带孩子去岘港参加国家篮球比赛</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>20070510049773</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Tran Tien Dung10049773</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>20070510049773</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Tran Tien Dung10049773</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2025/7/10 10:27:46</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2025/7/11 8:01:00</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>2025/7/14 17:30:00</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>For 02 days annual leave.</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2025/7/10 10:19:06</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2025/7/10 13:30:00</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>2025/7/10 17:30:00</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>身体不好，腰疼，我请假去治疗一下</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2025/7/11 15:49:13</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2025/7/7 15:00:00</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>2025/7/7 19:00:00</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>张哥好，我去公安区给ZHANG YU HANG 办理暂住证做劳动证,  请你审批一下，谢谢！</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>20050900037581</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>DO THAI THU00037581</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2025/7/5 10:35:49</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2025/7/7 8:01:00</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>2025/7/7 17:30:00</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>带孩子去胡志明参加篮球比赛</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>20030810020940</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Ho Duc Huy10020940</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>20030810020940</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Ho Duc Huy10020940</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2025/7/9 19:45:29</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2025/7/7 8:00:00</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>2025/7/9 17:30:00</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>国内出差</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>出差到中国深圳总部，接待越南互联网协会代表团</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>20110110120977</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Pham Tri Dung10120977</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>20110110120977</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Pham Tri Dung10120977</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2025/6/26 16:11:50</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2025/7/5 8:28:00</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>2025/7/13 17:58:00</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>国际/中国港澳台出差</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Join ZTE Dualforce Bootcamp trainning in Shenzhen.</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2025/7/3 16:11:14</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2025/7/3 15:00:00</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>2025/7/3 19:00:00</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>张哥好！
+WANG ZHENGYU 要准备材料做劳动证， 我去公安区给他办理暂住证，请你审批一下</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>20030810020940</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Ho Duc Huy10020940</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>20030810020940</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Ho Duc Huy10020940</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2025/7/3 23:59:43</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2025/7/1 8:01:00</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>2025/7/1 8:01:00</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>早上因为直接去Gtel不打卡，烦请领导审批，谢谢！</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>20141100176921</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Nguyen Thi Minh Hanh00176921</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>20141100176921</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Nguyen Thi Minh Hanh00176921</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2025/7/2 16:15:43</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2025/6/30 8:00:00</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>2025/6/30 8:00:00</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Dear Sir, 
+I scanned the attendance before 8am. However due to the system error, it did not record the scanning to the system. Pls kindly approve. Thank you, Sir.</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>2025/6/26 15:49:16</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2025/6/27 8:00:00</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>2025/6/27 17:30:00</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>领导好，
+我申请请休年假一天，请领导审批。
+谢谢！</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2025/6/26 15:51:11</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2025/6/26 15:00:00</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>2025/6/26 19:00:00</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>张哥好，
+今天内务区约定提供HUANG TAI RONG劳动证，我去争取的。
+请领导审批。</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>20250500354133</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Dao Thi Ngan00354133</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>20250500354133</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Dao Thi Ngan00354133</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2025/6/24 20:19:09</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2025/6/24 8:30:00</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>2025/6/24 12:30:00</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>Visiting Viettelnet to update information and introduction</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>20030810020940</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Ho Duc Huy10020940</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>20030810020940</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Ho Duc Huy10020940</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>2025/6/18 17:52:11</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2025/6/24 8:00:00</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>2025/6/27 17:30:00</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>年休假</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>邦总，从2025.06.24- 2025.06.2, 我想申请休假04天跟家庭去中国度假，烦请邦总给我审批，多谢！</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>Leave</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>Annual leave</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>20240600349830</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Nguyen Thi Van00349830</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>20240600349830</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Nguyen Thi Van00349830</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2025/7/17 11:53:13</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2025/6/20 18:00:00</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>2025/6/20 18:00:00</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>个人补单</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>Supp</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>Replenishment</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>20231000346969</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Pham Thuy Linh00346969</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>2025/6/20 15:23:00</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2025/6/20 14:30:00</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2025/6/20 19:00:00</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>市内出差</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>张哥好，
+今天我去内务局争取HE ER FU 和 JIA JING NAN劳动证。请你审批，信息你！</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>Trip</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/uploads/temp_apply.xlsx
+++ b/uploads/temp_apply.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M160"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6015,4560 +6015,6 @@
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>2025/7/11 15:47:45</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>2025/7/11 15:00:00</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>2025/7/11 19:00:00</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>张哥好，我去公安区给CHEN JIN JUN 办理暂住证做劳动证,  请你审批一下，谢谢！</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>20050900037581</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>DO THAI THU00037581</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>20050900037581</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>DO THAI THU00037581</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>2025/7/5 10:36:31</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>2025/7/11 8:01:00</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>2025/7/11 17:30:00</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>带孩子去岘港参加国家篮球比赛</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>Annual leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>20070510049773</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Tran Tien Dung10049773</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>20070510049773</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Tran Tien Dung10049773</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>2025/7/10 10:27:46</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>2025/7/11 8:01:00</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>2025/7/14 17:30:00</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>For 02 days annual leave.</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>Annual leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>20050900037581</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>DO THAI THU00037581</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>20050900037581</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>DO THAI THU00037581</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>2025/7/10 10:19:06</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>2025/7/10 13:30:00</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>2025/7/10 17:30:00</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>身体不好，腰疼，我请假去治疗一下</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>Annual leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>2025/7/11 15:49:13</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>2025/7/7 15:00:00</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>2025/7/7 19:00:00</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>张哥好，我去公安区给ZHANG YU HANG 办理暂住证做劳动证,  请你审批一下，谢谢！</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>20050900037581</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>DO THAI THU00037581</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>20050900037581</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>DO THAI THU00037581</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>2025/7/5 10:35:49</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>2025/7/7 8:01:00</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>2025/7/7 17:30:00</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>带孩子去胡志明参加篮球比赛</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>Annual leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>20030810020940</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Ho Duc Huy10020940</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>20030810020940</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Ho Duc Huy10020940</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>2025/7/9 19:45:29</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>2025/7/7 8:00:00</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>2025/7/9 17:30:00</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>国内出差</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>出差到中国深圳总部，接待越南互联网协会代表团</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>20110110120977</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Pham Tri Dung10120977</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>20110110120977</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Pham Tri Dung10120977</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>2025/6/26 16:11:50</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>2025/7/5 8:28:00</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>2025/7/13 17:58:00</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>国际/中国港澳台出差</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>Join ZTE Dualforce Bootcamp trainning in Shenzhen.</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>2025/7/3 16:11:14</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>2025/7/3 15:00:00</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>2025/7/3 19:00:00</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>张哥好！
-WANG ZHENGYU 要准备材料做劳动证， 我去公安区给他办理暂住证，请你审批一下</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>20030810020940</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Ho Duc Huy10020940</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>20030810020940</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Ho Duc Huy10020940</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>2025/7/3 23:59:43</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>2025/7/1 8:01:00</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>2025/7/1 8:01:00</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>早上因为直接去Gtel不打卡，烦请领导审批，谢谢！</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>20141100176921</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Nguyen Thi Minh Hanh00176921</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>20141100176921</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Nguyen Thi Minh Hanh00176921</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>2025/7/2 16:15:43</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>2025/6/30 8:00:00</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>2025/6/30 8:00:00</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>Dear Sir, 
-I scanned the attendance before 8am. However due to the system error, it did not record the scanning to the system. Pls kindly approve. Thank you, Sir.</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>2025/6/26 15:49:16</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>2025/6/27 8:00:00</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>2025/6/27 17:30:00</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>领导好，
-我申请请休年假一天，请领导审批。
-谢谢！</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>Annual leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>2025/6/26 15:51:11</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>2025/6/26 15:00:00</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>2025/6/26 19:00:00</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>张哥好，
-今天内务区约定提供HUANG TAI RONG劳动证，我去争取的。
-请领导审批。</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>20250500354133</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Dao Thi Ngan00354133</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>20250500354133</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Dao Thi Ngan00354133</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>2025/6/24 20:19:09</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>2025/6/24 8:30:00</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>2025/6/24 12:30:00</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>Visiting Viettelnet to update information and introduction</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>20030810020940</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Ho Duc Huy10020940</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>20030810020940</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Ho Duc Huy10020940</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>2025/6/18 17:52:11</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>2025/6/24 8:00:00</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>2025/6/27 17:30:00</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>邦总，从2025.06.24- 2025.06.2, 我想申请休假04天跟家庭去中国度假，烦请邦总给我审批，多谢！</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>Annual leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>20240600349830</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Nguyen Thi Van00349830</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>20240600349830</v>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Nguyen Thi Van00349830</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>2025/7/17 11:53:13</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>2025/6/20 18:00:00</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>2025/6/20 18:00:00</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>2025/6/20 15:23:00</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>2025/6/20 14:30:00</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>2025/6/20 19:00:00</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>张哥好，
-今天我去内务局争取HE ER FU 和 JIA JING NAN劳动证。请你审批，信息你！</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>20240610349369</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>TA TIEN THANH10349369</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>20240610349369</v>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>TA TIEN THANH10349369</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>2025/7/15 18:40:30</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>2025/7/14 18:00:00</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>2025/7/14 18:00:00</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>Forget to sign out</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>20050210031021</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Le Viet Hung10031021</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>20050210031021</v>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Le Viet Hung10031021</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>2025/7/14 0:22:40</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>2025/7/14 8:00:00</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>2025/7/18 17:30:00</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>国内出差</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>To go to work with warranty centers in the South</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>20180510241857</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>NGUYEN SON TOAN10241857</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>20180510241857</v>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>NGUYEN SON TOAN10241857</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>2025/7/15 19:03:41</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>2025/7/11 18:01:00</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>2025/7/11 18:01:00</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>周五下班较晚忘记打卡</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>20250500354085</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Nguyen Van Phi Yen00354085</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>20250500354085</v>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Nguyen Van Phi Yen00354085</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>2025/7/15 10:13:53</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>2025/7/11 17:34:00</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>2025/7/11 17:34:00</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>Dear sir, I’m truly sorry for forgetting to check out because I was in a rush and didn’t mean to cause any trouble.</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>20240710350130</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Nguyen Tat Khoi10350130</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>20240710350130</v>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Nguyen Tat Khoi10350130</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>2025/7/11 9:16:25</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>2025/7/11 13:35:00</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>2025/7/11 17:35:00</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>Dear Sir,
-I would like to take 1/2 day off today afternoon 11Jul
-Thanks</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>Annual leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>20240610349944</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Le Ngoc Thang10349944</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>20240610349944</v>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Le Ngoc Thang10349944</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>2025/7/10 10:25:16</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>2025/7/10 13:30:00</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>2025/7/10 17:30:00</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>Dear Sir. I would like to submit to take this afternoon off due to personal matters. Please help to review and approve. Thanks Sir!</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>Annual leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>20080310063060</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>TRAN NGOC ANH10063060</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>20080310063060</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>TRAN NGOC ANH10063060</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>2025/7/8 19:57:51</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>2025/7/10 8:01:00</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>2025/7/11 17:30:00</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>Due to private reason that i would apply to take levave for two days 10th July and 11th July, please help to consider and approve for me. Thanks!</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>Annual leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>20240610349369</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>TA TIEN THANH10349369</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>20240610349369</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>TA TIEN THANH10349369</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>2025/7/15 18:41:19</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>2025/7/10 8:00:00</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>2025/7/10 10:00:00</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>Weekly meeting with customer at VNM office</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>20240610349370</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Nguyen Duc Hoa10349370</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>20240610349370</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Nguyen Duc Hoa10349370</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>2025/7/10 19:01:22</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>2025/7/9 18:01:00</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>2025/7/9 18:01:00</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>I forgot to check out, plz approve for me. Thanks</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>20240110348008</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Nguyen Dinh Quang10348008</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>20240110348008</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Nguyen Dinh Quang10348008</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>2025/7/9 19:21:05</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>2025/7/9 8:00:00</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>2025/7/9 8:00:00</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>I forgot to sign in this morning. Please help me to approve my correction application. Thanks sir</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>20070210046198</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>BUI BA UY10046198</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>20070210046198</v>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>BUI BA UY10046198</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>2025/7/7 18:40:14</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>2025/7/8 8:00:00</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>2025/7/18 18:00:00</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>国内出差</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>As assignment from PD Mr Chen Wei, I will go to Hochiminh city to support 5G TA testing offcial test. Pls help to approve my business trip. Thanks</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>20240110348008</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Nguyen Dinh Quang10348008</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>20240110348008</v>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Nguyen Dinh Quang10348008</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>2025/7/9 19:20:02</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>2025/7/7 8:00:00</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>2025/7/7 8:00:00</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>I forgot to sign in in morning. Please help me to approve my correction application. Thanks sir</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>20240610349945</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Mai The Dat10349945</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>20240610349945</v>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Mai The Dat10349945</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>2025/7/10 10:03:07</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>2025/7/7 8:00:00</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>2025/7/10 17:30:00</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>Test inside temperature of DC mini for new biding.</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>20240610349368</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Nguyen Minh Tri10349368</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>20240610349368</v>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Nguyen Minh Tri10349368</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>2025/7/11 9:08:59</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>2025/7/4 8:01:00</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>2025/7/4 8:01:00</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>Dear Sir! I have work on this day normally, Pls help to review and approve. Thanks sir!</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>20160410201933</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Nguyen Thanh Tuan10201933</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>20160410201933</v>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Nguyen Thanh Tuan10201933</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>2025/6/30 10:12:33</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>2025/7/4 8:00:00</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>2025/7/4 17:30:00</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>I want to be off this Friday due to personal issue.</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>Annual leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>20240610349945</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Mai The Dat10349945</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>20240610349945</v>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Mai The Dat10349945</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>2025/7/10 10:00:49</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>2025/7/4 8:00:00</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>2025/7/4 17:30:00</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>Test alarm funcion for Smart PDU.</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>20150410184732</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Pham Xuan Tuan10184732</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>20150410184732</v>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Pham Xuan Tuan10184732</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>2025/7/1 17:10:55</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>2025/7/3 8:01:00</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>2025/7/4 17:30:00</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>Dear Mr ZhaoKai,
-I would like to apply 2 days off working from 3-July to 4-July for annual leave 
-Thank you very much!</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>Annual leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>20240610349369</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>TA TIEN THANH10349369</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>20240610349369</v>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>TA TIEN THANH10349369</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>2025/7/7 9:43:00</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>2025/7/3 8:00:00</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>2025/7/3 10:00:00</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>Weekly meeting with the customer at VNM office</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>20250510353735</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Nguyen Nam Anh10353735</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>20250510353735</v>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Nguyen Nam Anh10353735</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>2025/7/3 19:06:05</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>2025/7/2 17:40:00</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>2025/7/2 17:40:00</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>Dear leader, I forgot to check out yesterday. Please approve my attendance correction. Thank you.</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>20211110316606</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Nguyen Van Sang10316606</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>20211110316606</v>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Nguyen Van Sang10316606</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>2025/7/3 12:19:29</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>2025/7/2 8:02:00</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>2025/7/2 18:31:00</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>Dear leader,
-I would like to inform you that on 02 July 2025, I visited the MTSO HCM site in C? Chi as part of audit MS. Due to the distance of approximately 40km from the office to the site, there was an adjustment in my attendance打卡 (attendance record)</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>20240610349945</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Mai The Dat10349945</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>20240610349945</v>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Mai The Dat10349945</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>2025/7/1 9:41:48</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>2025/7/1 9:00:00</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>2025/7/2 17:30:00</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>test the function of smart PDU - Alarm of smart CB for new biding.</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>20080510068423</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>LE THAI HOANG LONG10068423</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>20080510068423</v>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>LE THAI HOANG LONG10068423</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>2025/6/30 17:44:22</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>2025/7/1 8:01:00</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>2025/7/2 17:30:00</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>国内出差</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>go to Dong Nai warehouse Viettel VTT for good checking the second shipment of STB PO01 TO CONTRACT NO.: 2304-?TTS/VTT-ZTE/2025
-include 33.800 SBT,  2x40GP 2 container.</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>20211110316606</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Nguyen Van Sang10316606</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>20211110316606</v>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Nguyen Van Sang10316606</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>2025/7/1 9:14:07</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>2025/6/30 18:05:00</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>2025/6/30 18:05:00</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>Dear leader, I forget sign out at office on 30Jun. Pls review &amp; approve my corrective apllication!</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>20220600329791</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Pham Phuong Thuy00329791</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>20220600329791</v>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Pham Phuong Thuy00329791</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>2025/6/30 13:20:18</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>2025/6/30 8:00:00</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>2025/6/30 8:00:00</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>Kindly approve my application for attendance correction due to forgetting to sign. Thank you!</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>20180510241857</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>NGUYEN SON TOAN10241857</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>20180510241857</v>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>NGUYEN SON TOAN10241857</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>2025/6/25 10:41:56</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>2025/6/27 8:00:00</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>2025/6/27 17:30:00</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>凯总好，周五我请一天年假，打算回老家。相关工作和报告会提前安排好。 谢谢凯总</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>Annual leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>20240610349370</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Nguyen Duc Hoa10349370</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>20240610349370</v>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Nguyen Duc Hoa10349370</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>2025/6/27 19:12:15</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>2025/6/26 18:01:00</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>2025/6/26 18:01:00</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>I forgot to sign out,  plz approve. Thanks</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>20240610349369</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>TA TIEN THANH10349369</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
-        <v>20240610349369</v>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>TA TIEN THANH10349369</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>2025/6/29 10:21:06</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>2025/6/26 8:00:00</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>2025/6/26 10:30:00</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>Weekly meeting with the customer at VNM office</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>20220600329792</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Nguyen Quynh Anh00329792</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>20220600329792</v>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Nguyen Quynh Anh00329792</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>2025/6/25 13:00:32</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>2025/6/25 13:49:00</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>2025/6/25 17:49:00</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>Dear sir,
-Due to family’s issue, I would like to apply a half day off from 13:30pm to 18:00pm today. Please kindly approve. Many tha nks.</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>Annual leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>20070210046198</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>BUI BA UY10046198</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>20070210046198</v>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>BUI BA UY10046198</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>2025/6/25 17:57:27</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>2025/6/25 8:00:00</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>2025/7/4 18:00:00</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>国内出差</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>As assign from PD Mr Chen Wei, i will go to Ho Chi Minh city to support 5G TA testing. Pls help to approve my business trip. Thanks</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>20250510353735</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Nguyen Nam Anh10353735</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
-        <v>20250510353735</v>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Nguyen Nam Anh10353735</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>2025/6/25 17:01:51</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>2025/6/25 8:00:00</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>2025/6/25 8:00:00</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>Dear leader, I forgot to check in this morning. Please approve my attendance correction. Thank you.</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>20240610349371</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Mai Viet Dung10349371</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
-        <v>20240610349371</v>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Mai Viet Dung10349371</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>2025/6/19 16:58:41</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>2025/6/24 8:00:00</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>2025/9/30 17:30:00</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>国际/中国港澳台出差</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>For working in Halotel project</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>20240610349945</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Mai The Dat10349945</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
-        <v>20240610349945</v>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Mai The Dat10349945</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>2025/6/23 19:38:22</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>2025/6/23 8:04:00</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>2025/6/23 17:34:00</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>Go to warehouse to take PU2.5 warranty for customer
-Troubleshooting Solar site for customer</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>20150410184732</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Pham Xuan Tuan10184732</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
-        <v>20150410184732</v>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Pham Xuan Tuan10184732</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>2025/7/16 12:38:54</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>2025/6/20 18:30:00</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>2025/6/20 18:30:00</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>Dear Mr ZhaoKai,
-I would like to apply the missing record of attendance, in that day we invited SVTECH for dinner and I came to restaurant early to setup welcome customer.
-Thank you!</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>20080510068423</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>LE THAI HOANG LONG10068423</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
-        <v>20080510068423</v>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>LE THAI HOANG LONG10068423</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>2025/7/11 18:45:51</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>2025/6/20 17:30:00</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>2025/6/20 17:30:00</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>I remember already signed out, but later checking see no record.  I want to apply as the missing record , please approve. thanks</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>20250500354085</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Nguyen Van Phi Yen00354085</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>20250500354085</v>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Nguyen Van Phi Yen00354085</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>2025/6/17 22:35:28</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>2025/6/20 8:00:00</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>2025/6/20 17:30:00</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>事假</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>Dear Mr. Zhao Kai,
-I would like to request a day off as I need to go to my university to complete some important administrative procedures. Thank you for your understanding.</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>20240610349945</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Mai The Dat10349945</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
-        <v>20240610349945</v>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Mai The Dat10349945</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>2025/6/19 11:48:46</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>2025/6/19 10:45:00</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>2025/6/20 17:30:00</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>国内出差</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>Charge battery for Trial site at VNPT.  ZTE trial power version 6, we disconnect customer''s VLRA and connect LIB to Power system
-Now we need to charge VLRA for customer, and install lighting protection for Solar panel</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>20070210046198</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>BUI BA UY10046198</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
-        <v>20070210046198</v>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>BUI BA UY10046198</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>2025/6/11 17:04:13</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>2025/6/12 8:00:00</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>2025/6/20 18:00:00</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>国内出差</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>Follow the assignment from PD and TD, i will go to HCM to support trial test TA with VNTA. Thanks</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>20080710073657</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>TRAN QUOC VIET10073657</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
-        <v>20080710073657</v>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>TRAN QUOC VIET10073657</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>2025/4/14 18:14:15</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>2025/4/18 8:05:00</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>2025/7/17 17:35:00</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>国际/中国港澳台出差</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>Go to Tanzania to support Halotel project</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>2025/7/11 15:47:45</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>2025/7/11 15:00:00</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>2025/7/11 19:00:00</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>张哥好，我去公安区给CHEN JIN JUN 办理暂住证做劳动证,  请你审批一下，谢谢！</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>20050900037581</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>DO THAI THU00037581</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>20050900037581</v>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>DO THAI THU00037581</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>2025/7/5 10:36:31</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>2025/7/11 8:01:00</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>2025/7/11 17:30:00</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>带孩子去岘港参加国家篮球比赛</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>Annual leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>20070510049773</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Tran Tien Dung10049773</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>20070510049773</v>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Tran Tien Dung10049773</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>2025/7/10 10:27:46</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>2025/7/11 8:01:00</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>2025/7/14 17:30:00</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>For 02 days annual leave.</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>Annual leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>20050900037581</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>DO THAI THU00037581</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
-        <v>20050900037581</v>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>DO THAI THU00037581</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>2025/7/10 10:19:06</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>2025/7/10 13:30:00</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>2025/7/10 17:30:00</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>身体不好，腰疼，我请假去治疗一下</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>Annual leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>2025/7/11 15:49:13</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>2025/7/7 15:00:00</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>2025/7/7 19:00:00</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>张哥好，我去公安区给ZHANG YU HANG 办理暂住证做劳动证,  请你审批一下，谢谢！</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>20050900037581</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>DO THAI THU00037581</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
-        <v>20050900037581</v>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>DO THAI THU00037581</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>2025/7/5 10:35:49</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>2025/7/7 8:01:00</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>2025/7/7 17:30:00</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>带孩子去胡志明参加篮球比赛</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>Annual leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>20030810020940</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Ho Duc Huy10020940</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v>20030810020940</v>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Ho Duc Huy10020940</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>2025/7/9 19:45:29</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>2025/7/7 8:00:00</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>2025/7/9 17:30:00</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>国内出差</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>出差到中国深圳总部，接待越南互联网协会代表团</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>20110110120977</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Pham Tri Dung10120977</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>20110110120977</v>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Pham Tri Dung10120977</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>2025/6/26 16:11:50</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>2025/7/5 8:28:00</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>2025/7/13 17:58:00</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>国际/中国港澳台出差</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>Join ZTE Dualforce Bootcamp trainning in Shenzhen.</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>2025/7/3 16:11:14</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>2025/7/3 15:00:00</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>2025/7/3 19:00:00</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>张哥好！
-WANG ZHENGYU 要准备材料做劳动证， 我去公安区给他办理暂住证，请你审批一下</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>20030810020940</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Ho Duc Huy10020940</t>
-        </is>
-      </c>
-      <c r="C153" t="n">
-        <v>20030810020940</v>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Ho Duc Huy10020940</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>2025/7/3 23:59:43</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>2025/7/1 8:01:00</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>2025/7/1 8:01:00</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>早上因为直接去Gtel不打卡，烦请领导审批，谢谢！</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>20141100176921</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Nguyen Thi Minh Hanh00176921</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
-        <v>20141100176921</v>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Nguyen Thi Minh Hanh00176921</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>2025/7/2 16:15:43</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>2025/6/30 8:00:00</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>2025/6/30 8:00:00</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>Dear Sir, 
-I scanned the attendance before 8am. However due to the system error, it did not record the scanning to the system. Pls kindly approve. Thank you, Sir.</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>2025/6/26 15:49:16</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>2025/6/27 8:00:00</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>2025/6/27 17:30:00</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>领导好，
-我申请请休年假一天，请领导审批。
-谢谢！</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>Annual leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>2025/6/26 15:51:11</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>2025/6/26 15:00:00</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>2025/6/26 19:00:00</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>张哥好，
-今天内务区约定提供HUANG TAI RONG劳动证，我去争取的。
-请领导审批。</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>20250500354133</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Dao Thi Ngan00354133</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
-        <v>20250500354133</v>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Dao Thi Ngan00354133</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>2025/6/24 20:19:09</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>2025/6/24 8:30:00</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>2025/6/24 12:30:00</t>
-        </is>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>Visiting Viettelnet to update information and introduction</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>20030810020940</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Ho Duc Huy10020940</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>20030810020940</v>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Ho Duc Huy10020940</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>2025/6/18 17:52:11</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>2025/6/24 8:00:00</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>2025/6/27 17:30:00</t>
-        </is>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>年休假</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>邦总，从2025.06.24- 2025.06.2, 我想申请休假04天跟家庭去中国度假，烦请邦总给我审批，多谢！</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>Leave</t>
-        </is>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>Annual leave</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>20240600349830</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Nguyen Thi Van00349830</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v>20240600349830</v>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Nguyen Thi Van00349830</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>2025/7/17 11:53:13</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>2025/6/20 18:00:00</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>2025/6/20 18:00:00</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>个人补单</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>Supp</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>Replenishment</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
-        <v>20231000346969</v>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Pham Thuy Linh00346969</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>2025/6/20 15:23:00</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>2025/6/20 14:30:00</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>2025/6/20 19:00:00</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>市内出差</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>张哥好，
-今天我去内务局争取HE ER FU 和 JIA JING NAN劳动证。请你审批，信息你！</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>审批通过</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>Trip</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
